--- a/output4.xlsx
+++ b/output4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="1553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1554">
   <si>
     <t>Part</t>
   </si>
@@ -3395,6 +3395,9 @@
   </si>
   <si>
     <t>No IVUSPullbackStartFrameNumber</t>
+  </si>
+  <si>
+    <t>No IVUSPullbackStopFrameNumber</t>
   </si>
   <si>
     <t>20220726083419.035507</t>
@@ -5087,14 +5090,14 @@
       <c r="G2" t="s">
         <v>1126</v>
       </c>
-      <c r="H2">
-        <v>2339</v>
+      <c r="H2" t="s">
+        <v>1127</v>
       </c>
       <c r="I2">
         <v>1725</v>
       </c>
       <c r="J2" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5120,13 +5123,13 @@
         <v>4199</v>
       </c>
       <c r="H3">
-        <v>2339</v>
+        <v>6522</v>
       </c>
       <c r="I3">
         <v>2327</v>
       </c>
       <c r="J3" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5152,13 +5155,13 @@
         <v>351</v>
       </c>
       <c r="H4">
-        <v>2339</v>
+        <v>2370</v>
       </c>
       <c r="I4">
         <v>2023</v>
       </c>
       <c r="J4" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5184,13 +5187,13 @@
         <v>315</v>
       </c>
       <c r="H5">
-        <v>2339</v>
+        <v>1979</v>
       </c>
       <c r="I5">
         <v>1668</v>
       </c>
       <c r="J5" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5216,13 +5219,13 @@
         <v>127</v>
       </c>
       <c r="H6">
-        <v>2339</v>
+        <v>1747</v>
       </c>
       <c r="I6">
         <v>1624</v>
       </c>
       <c r="J6" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5248,13 +5251,13 @@
         <v>2394</v>
       </c>
       <c r="H7">
-        <v>2339</v>
+        <v>2968</v>
       </c>
       <c r="I7">
         <v>578</v>
       </c>
       <c r="J7" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5279,14 +5282,14 @@
       <c r="G8" t="s">
         <v>1126</v>
       </c>
-      <c r="H8">
-        <v>2339</v>
+      <c r="H8" t="s">
+        <v>1127</v>
       </c>
       <c r="I8">
         <v>1327</v>
       </c>
       <c r="J8" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5311,14 +5314,14 @@
       <c r="G9" t="s">
         <v>1126</v>
       </c>
-      <c r="H9">
-        <v>2339</v>
+      <c r="H9" t="s">
+        <v>1127</v>
       </c>
       <c r="I9">
         <v>1327</v>
       </c>
       <c r="J9" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5344,13 +5347,13 @@
         <v>73</v>
       </c>
       <c r="H10">
-        <v>2339</v>
+        <v>2160</v>
       </c>
       <c r="I10">
         <v>2091</v>
       </c>
       <c r="J10" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5376,13 +5379,13 @@
         <v>521</v>
       </c>
       <c r="H11">
-        <v>2339</v>
+        <v>3186</v>
       </c>
       <c r="I11">
         <v>2669</v>
       </c>
       <c r="J11" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5408,13 +5411,13 @@
         <v>2</v>
       </c>
       <c r="H12">
-        <v>2339</v>
+        <v>374</v>
       </c>
       <c r="I12">
         <v>380</v>
       </c>
       <c r="J12" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5440,13 +5443,13 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>2339</v>
+        <v>4729</v>
       </c>
       <c r="I13">
         <v>4732</v>
       </c>
       <c r="J13" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5472,13 +5475,13 @@
         <v>987</v>
       </c>
       <c r="H14">
-        <v>2339</v>
+        <v>2202</v>
       </c>
       <c r="I14">
         <v>1219</v>
       </c>
       <c r="J14" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5504,13 +5507,13 @@
         <v>5632</v>
       </c>
       <c r="H15">
-        <v>2339</v>
+        <v>7492</v>
       </c>
       <c r="I15">
         <v>1864</v>
       </c>
       <c r="J15" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5536,13 +5539,13 @@
         <v>76</v>
       </c>
       <c r="H16">
-        <v>2339</v>
+        <v>2121</v>
       </c>
       <c r="I16">
         <v>2049</v>
       </c>
       <c r="J16" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5568,13 +5571,13 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>2339</v>
+        <v>1312</v>
       </c>
       <c r="I17">
         <v>1314</v>
       </c>
       <c r="J17" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5600,13 +5603,13 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>2339</v>
+        <v>130</v>
       </c>
       <c r="I18">
         <v>134</v>
       </c>
       <c r="J18" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5632,13 +5635,13 @@
         <v>2</v>
       </c>
       <c r="H19">
-        <v>2339</v>
+        <v>2261</v>
       </c>
       <c r="I19">
         <v>2265</v>
       </c>
       <c r="J19" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5664,13 +5667,13 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2339</v>
+        <v>16</v>
       </c>
       <c r="I20">
         <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5696,13 +5699,13 @@
         <v>165</v>
       </c>
       <c r="H21">
-        <v>2339</v>
+        <v>2350</v>
       </c>
       <c r="I21">
         <v>2189</v>
       </c>
       <c r="J21" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5728,13 +5731,13 @@
         <v>119</v>
       </c>
       <c r="H22">
-        <v>2339</v>
+        <v>2739</v>
       </c>
       <c r="I22">
         <v>2624</v>
       </c>
       <c r="J22" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5760,13 +5763,13 @@
         <v>76</v>
       </c>
       <c r="H23">
-        <v>2339</v>
+        <v>1972</v>
       </c>
       <c r="I23">
         <v>1900</v>
       </c>
       <c r="J23" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5792,13 +5795,13 @@
         <v>146</v>
       </c>
       <c r="H24">
-        <v>2339</v>
+        <v>2540</v>
       </c>
       <c r="I24">
         <v>2398</v>
       </c>
       <c r="J24" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5824,13 +5827,13 @@
         <v>113</v>
       </c>
       <c r="H25">
-        <v>2339</v>
+        <v>2208</v>
       </c>
       <c r="I25">
         <v>2099</v>
       </c>
       <c r="J25" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5856,13 +5859,13 @@
         <v>68</v>
       </c>
       <c r="H26">
-        <v>2339</v>
+        <v>2323</v>
       </c>
       <c r="I26">
         <v>2259</v>
       </c>
       <c r="J26" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5888,13 +5891,13 @@
         <v>107</v>
       </c>
       <c r="H27">
-        <v>2339</v>
+        <v>3041</v>
       </c>
       <c r="I27">
         <v>2937</v>
       </c>
       <c r="J27" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5920,13 +5923,13 @@
         <v>416</v>
       </c>
       <c r="H28">
-        <v>2339</v>
+        <v>2865</v>
       </c>
       <c r="I28">
         <v>2453</v>
       </c>
       <c r="J28" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5952,13 +5955,13 @@
         <v>144</v>
       </c>
       <c r="H29">
-        <v>2339</v>
+        <v>2118</v>
       </c>
       <c r="I29">
         <v>1978</v>
       </c>
       <c r="J29" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5984,13 +5987,13 @@
         <v>587</v>
       </c>
       <c r="H30">
-        <v>2339</v>
+        <v>2668</v>
       </c>
       <c r="I30">
         <v>2085</v>
       </c>
       <c r="J30" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -6016,13 +6019,13 @@
         <v>68</v>
       </c>
       <c r="H31">
-        <v>2339</v>
+        <v>1407</v>
       </c>
       <c r="I31">
         <v>1343</v>
       </c>
       <c r="J31" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6047,14 +6050,14 @@
       <c r="G32" t="s">
         <v>1126</v>
       </c>
-      <c r="H32">
-        <v>2339</v>
+      <c r="H32" t="s">
+        <v>1127</v>
       </c>
       <c r="I32">
         <v>809</v>
       </c>
       <c r="J32" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6080,13 +6083,13 @@
         <v>33</v>
       </c>
       <c r="H33">
-        <v>2339</v>
+        <v>1839</v>
       </c>
       <c r="I33">
         <v>1810</v>
       </c>
       <c r="J33" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6111,14 +6114,14 @@
       <c r="G34" t="s">
         <v>1126</v>
       </c>
-      <c r="H34">
-        <v>2339</v>
+      <c r="H34" t="s">
+        <v>1127</v>
       </c>
       <c r="I34">
         <v>1346</v>
       </c>
       <c r="J34" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -6143,14 +6146,14 @@
       <c r="G35" t="s">
         <v>1126</v>
       </c>
-      <c r="H35">
-        <v>2339</v>
+      <c r="H35" t="s">
+        <v>1127</v>
       </c>
       <c r="I35">
         <v>692</v>
       </c>
       <c r="J35" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -6175,14 +6178,14 @@
       <c r="G36" t="s">
         <v>1126</v>
       </c>
-      <c r="H36">
-        <v>2339</v>
+      <c r="H36" t="s">
+        <v>1127</v>
       </c>
       <c r="I36">
         <v>722</v>
       </c>
       <c r="J36" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -6208,13 +6211,13 @@
         <v>480</v>
       </c>
       <c r="H37">
-        <v>2339</v>
+        <v>2488</v>
       </c>
       <c r="I37">
         <v>2012</v>
       </c>
       <c r="J37" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -6240,13 +6243,13 @@
         <v>480</v>
       </c>
       <c r="H38">
-        <v>2339</v>
+        <v>2488</v>
       </c>
       <c r="I38">
         <v>2012</v>
       </c>
       <c r="J38" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -6272,13 +6275,13 @@
         <v>171</v>
       </c>
       <c r="H39">
-        <v>2339</v>
+        <v>2171</v>
       </c>
       <c r="I39">
         <v>2004</v>
       </c>
       <c r="J39" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -6303,14 +6306,14 @@
       <c r="G40" t="s">
         <v>1126</v>
       </c>
-      <c r="H40">
-        <v>2339</v>
+      <c r="H40" t="s">
+        <v>1127</v>
       </c>
       <c r="I40">
         <v>850</v>
       </c>
       <c r="J40" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -6335,14 +6338,14 @@
       <c r="G41" t="s">
         <v>1126</v>
       </c>
-      <c r="H41">
-        <v>2339</v>
+      <c r="H41" t="s">
+        <v>1127</v>
       </c>
       <c r="I41">
         <v>2259</v>
       </c>
       <c r="J41" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -6367,14 +6370,14 @@
       <c r="G42" t="s">
         <v>1126</v>
       </c>
-      <c r="H42">
-        <v>2339</v>
+      <c r="H42" t="s">
+        <v>1127</v>
       </c>
       <c r="I42">
         <v>290</v>
       </c>
       <c r="J42" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -6399,14 +6402,14 @@
       <c r="G43" t="s">
         <v>1126</v>
       </c>
-      <c r="H43">
-        <v>2339</v>
+      <c r="H43" t="s">
+        <v>1127</v>
       </c>
       <c r="I43">
         <v>482</v>
       </c>
       <c r="J43" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -6431,14 +6434,14 @@
       <c r="G44" t="s">
         <v>1126</v>
       </c>
-      <c r="H44">
-        <v>2339</v>
+      <c r="H44" t="s">
+        <v>1127</v>
       </c>
       <c r="I44">
         <v>1726</v>
       </c>
       <c r="J44" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -6464,13 +6467,13 @@
         <v>156</v>
       </c>
       <c r="H45">
-        <v>2339</v>
+        <v>2890</v>
       </c>
       <c r="I45">
         <v>2738</v>
       </c>
       <c r="J45" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -6496,13 +6499,13 @@
         <v>195</v>
       </c>
       <c r="H46">
-        <v>2339</v>
+        <v>1621</v>
       </c>
       <c r="I46">
         <v>1430</v>
       </c>
       <c r="J46" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -6528,13 +6531,13 @@
         <v>94</v>
       </c>
       <c r="H47">
-        <v>2339</v>
+        <v>2475</v>
       </c>
       <c r="I47">
         <v>2385</v>
       </c>
       <c r="J47" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -6560,13 +6563,13 @@
         <v>151</v>
       </c>
       <c r="H48">
-        <v>2339</v>
+        <v>2374</v>
       </c>
       <c r="I48">
         <v>2227</v>
       </c>
       <c r="J48" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -6591,14 +6594,14 @@
       <c r="G49" t="s">
         <v>1126</v>
       </c>
-      <c r="H49">
-        <v>2339</v>
+      <c r="H49" t="s">
+        <v>1127</v>
       </c>
       <c r="I49">
         <v>701</v>
       </c>
       <c r="J49" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -6624,13 +6627,13 @@
         <v>84</v>
       </c>
       <c r="H50">
-        <v>2339</v>
+        <v>674</v>
       </c>
       <c r="I50">
         <v>594</v>
       </c>
       <c r="J50" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -6656,13 +6659,13 @@
         <v>272</v>
       </c>
       <c r="H51">
-        <v>2339</v>
+        <v>370</v>
       </c>
       <c r="I51">
         <v>102</v>
       </c>
       <c r="J51" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -6688,13 +6691,13 @@
         <v>94</v>
       </c>
       <c r="H52">
-        <v>2339</v>
+        <v>2530</v>
       </c>
       <c r="I52">
         <v>2440</v>
       </c>
       <c r="J52" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -6720,13 +6723,13 @@
         <v>229</v>
       </c>
       <c r="H53">
-        <v>2339</v>
+        <v>2092</v>
       </c>
       <c r="I53">
         <v>1867</v>
       </c>
       <c r="J53" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -6752,13 +6755,13 @@
         <v>94</v>
       </c>
       <c r="H54">
-        <v>2339</v>
+        <v>2530</v>
       </c>
       <c r="I54">
         <v>2440</v>
       </c>
       <c r="J54" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -6784,13 +6787,13 @@
         <v>124</v>
       </c>
       <c r="H55">
-        <v>2339</v>
+        <v>2310</v>
       </c>
       <c r="I55">
         <v>2190</v>
       </c>
       <c r="J55" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -6816,13 +6819,13 @@
         <v>8</v>
       </c>
       <c r="H56">
-        <v>2339</v>
+        <v>86</v>
       </c>
       <c r="I56">
         <v>82</v>
       </c>
       <c r="J56" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -6848,13 +6851,13 @@
         <v>252</v>
       </c>
       <c r="H57">
-        <v>2339</v>
+        <v>2375</v>
       </c>
       <c r="I57">
         <v>2127</v>
       </c>
       <c r="J57" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -6880,13 +6883,13 @@
         <v>252</v>
       </c>
       <c r="H58">
-        <v>2339</v>
+        <v>2375</v>
       </c>
       <c r="I58">
         <v>2127</v>
       </c>
       <c r="J58" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -6912,13 +6915,13 @@
         <v>1778</v>
       </c>
       <c r="H59">
-        <v>2339</v>
+        <v>3714</v>
       </c>
       <c r="I59">
         <v>1940</v>
       </c>
       <c r="J59" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -6944,13 +6947,13 @@
         <v>1778</v>
       </c>
       <c r="H60">
-        <v>2339</v>
+        <v>3714</v>
       </c>
       <c r="I60">
         <v>1940</v>
       </c>
       <c r="J60" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -6976,13 +6979,13 @@
         <v>200</v>
       </c>
       <c r="H61">
-        <v>2339</v>
+        <v>2314</v>
       </c>
       <c r="I61">
         <v>2118</v>
       </c>
       <c r="J61" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -7008,13 +7011,13 @@
         <v>232</v>
       </c>
       <c r="H62">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c r="I62">
         <v>2113</v>
       </c>
       <c r="J62" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -7040,13 +7043,13 @@
         <v>427</v>
       </c>
       <c r="H63">
-        <v>2339</v>
+        <v>3152</v>
       </c>
       <c r="I63">
         <v>2729</v>
       </c>
       <c r="J63" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -7072,13 +7075,13 @@
         <v>255</v>
       </c>
       <c r="H64">
-        <v>2339</v>
+        <v>2993</v>
       </c>
       <c r="I64">
         <v>2742</v>
       </c>
       <c r="J64" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -7104,13 +7107,13 @@
         <v>286</v>
       </c>
       <c r="H65">
-        <v>2339</v>
+        <v>2258</v>
       </c>
       <c r="I65">
         <v>1976</v>
       </c>
       <c r="J65" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -7136,13 +7139,13 @@
         <v>73</v>
       </c>
       <c r="H66">
-        <v>2339</v>
+        <v>2289</v>
       </c>
       <c r="I66">
         <v>2220</v>
       </c>
       <c r="J66" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -7168,13 +7171,13 @@
         <v>169</v>
       </c>
       <c r="H67">
-        <v>2339</v>
+        <v>2660</v>
       </c>
       <c r="I67">
         <v>2495</v>
       </c>
       <c r="J67" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -7200,13 +7203,13 @@
         <v>12</v>
       </c>
       <c r="H68">
-        <v>2339</v>
+        <v>88</v>
       </c>
       <c r="I68">
         <v>80</v>
       </c>
       <c r="J68" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -7232,13 +7235,13 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>2339</v>
+        <v>127</v>
       </c>
       <c r="I69">
         <v>133</v>
       </c>
       <c r="J69" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -7264,13 +7267,13 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>2339</v>
+        <v>241</v>
       </c>
       <c r="I70">
         <v>243</v>
       </c>
       <c r="J70" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -7296,13 +7299,13 @@
         <v>2</v>
       </c>
       <c r="H71">
-        <v>2339</v>
+        <v>104</v>
       </c>
       <c r="I71">
         <v>111</v>
       </c>
       <c r="J71" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -7328,13 +7331,13 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>2339</v>
+        <v>139</v>
       </c>
       <c r="I72">
         <v>147</v>
       </c>
       <c r="J72" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -7360,13 +7363,13 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>2339</v>
+        <v>91</v>
       </c>
       <c r="I73">
         <v>96</v>
       </c>
       <c r="J73" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -7392,13 +7395,13 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>2339</v>
+        <v>3079</v>
       </c>
       <c r="I74">
         <v>3084</v>
       </c>
       <c r="J74" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -7424,13 +7427,13 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>2339</v>
+        <v>1969</v>
       </c>
       <c r="I75">
         <v>1974</v>
       </c>
       <c r="J75" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -7456,13 +7459,13 @@
         <v>2</v>
       </c>
       <c r="H76">
-        <v>2339</v>
+        <v>176</v>
       </c>
       <c r="I76">
         <v>182</v>
       </c>
       <c r="J76" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -7488,13 +7491,13 @@
         <v>461</v>
       </c>
       <c r="H77">
-        <v>2339</v>
+        <v>3174</v>
       </c>
       <c r="I77">
         <v>2717</v>
       </c>
       <c r="J77" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -7519,14 +7522,14 @@
       <c r="G78" t="s">
         <v>1126</v>
       </c>
-      <c r="H78">
-        <v>2339</v>
+      <c r="H78" t="s">
+        <v>1127</v>
       </c>
       <c r="I78">
         <v>1667</v>
       </c>
       <c r="J78" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -7551,14 +7554,14 @@
       <c r="G79" t="s">
         <v>1126</v>
       </c>
-      <c r="H79">
-        <v>2339</v>
+      <c r="H79" t="s">
+        <v>1127</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -7584,13 +7587,13 @@
         <v>103</v>
       </c>
       <c r="H80">
-        <v>2339</v>
+        <v>2200</v>
       </c>
       <c r="I80">
         <v>2101</v>
       </c>
       <c r="J80" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -7616,13 +7619,13 @@
         <v>61</v>
       </c>
       <c r="H81">
-        <v>2339</v>
+        <v>2371</v>
       </c>
       <c r="I81">
         <v>2314</v>
       </c>
       <c r="J81" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -7648,13 +7651,13 @@
         <v>258</v>
       </c>
       <c r="H82">
-        <v>2339</v>
+        <v>3242</v>
       </c>
       <c r="I82">
         <v>2988</v>
       </c>
       <c r="J82" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -7680,13 +7683,13 @@
         <v>116</v>
       </c>
       <c r="H83">
-        <v>2339</v>
+        <v>209</v>
       </c>
       <c r="I83">
         <v>97</v>
       </c>
       <c r="J83" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -7712,13 +7715,13 @@
         <v>463</v>
       </c>
       <c r="H84">
-        <v>2339</v>
+        <v>3481</v>
       </c>
       <c r="I84">
         <v>3022</v>
       </c>
       <c r="J84" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -7744,13 +7747,13 @@
         <v>176</v>
       </c>
       <c r="H85">
-        <v>2339</v>
+        <v>2684</v>
       </c>
       <c r="I85">
         <v>2512</v>
       </c>
       <c r="J85" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -7775,14 +7778,14 @@
       <c r="G86" t="s">
         <v>1126</v>
       </c>
-      <c r="H86">
-        <v>2339</v>
+      <c r="H86" t="s">
+        <v>1127</v>
       </c>
       <c r="I86">
         <v>62</v>
       </c>
       <c r="J86" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -7807,14 +7810,14 @@
       <c r="G87" t="s">
         <v>1126</v>
       </c>
-      <c r="H87">
-        <v>2339</v>
+      <c r="H87" t="s">
+        <v>1127</v>
       </c>
       <c r="I87">
         <v>383</v>
       </c>
       <c r="J87" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -7839,14 +7842,14 @@
       <c r="G88" t="s">
         <v>1126</v>
       </c>
-      <c r="H88">
-        <v>2339</v>
+      <c r="H88" t="s">
+        <v>1127</v>
       </c>
       <c r="I88">
         <v>502</v>
       </c>
       <c r="J88" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -7872,13 +7875,13 @@
         <v>269</v>
       </c>
       <c r="H89">
-        <v>2339</v>
+        <v>2716</v>
       </c>
       <c r="I89">
         <v>2451</v>
       </c>
       <c r="J89" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -7904,13 +7907,13 @@
         <v>61</v>
       </c>
       <c r="H90">
-        <v>2339</v>
+        <v>2240</v>
       </c>
       <c r="I90">
         <v>2183</v>
       </c>
       <c r="J90" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -7936,13 +7939,13 @@
         <v>203</v>
       </c>
       <c r="H91">
-        <v>2339</v>
+        <v>1969</v>
       </c>
       <c r="I91">
         <v>1770</v>
       </c>
       <c r="J91" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -7968,13 +7971,13 @@
         <v>229</v>
       </c>
       <c r="H92">
-        <v>2339</v>
+        <v>3167</v>
       </c>
       <c r="I92">
         <v>2942</v>
       </c>
       <c r="J92" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -8000,13 +8003,13 @@
         <v>229</v>
       </c>
       <c r="H93">
-        <v>2339</v>
+        <v>3167</v>
       </c>
       <c r="I93">
         <v>2942</v>
       </c>
       <c r="J93" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -8032,13 +8035,13 @@
         <v>100</v>
       </c>
       <c r="H94">
-        <v>2339</v>
+        <v>2879</v>
       </c>
       <c r="I94">
         <v>2783</v>
       </c>
       <c r="J94" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -8064,13 +8067,13 @@
         <v>686</v>
       </c>
       <c r="H95">
-        <v>2339</v>
+        <v>704</v>
       </c>
       <c r="I95">
         <v>22</v>
       </c>
       <c r="J95" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -8096,13 +8099,13 @@
         <v>11</v>
       </c>
       <c r="H96">
-        <v>2339</v>
+        <v>58</v>
       </c>
       <c r="I96">
         <v>51</v>
       </c>
       <c r="J96" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -8128,13 +8131,13 @@
         <v>117</v>
       </c>
       <c r="H97">
-        <v>2339</v>
+        <v>2866</v>
       </c>
       <c r="I97">
         <v>2753</v>
       </c>
       <c r="J97" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -8160,13 +8163,13 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>2339</v>
+        <v>337</v>
       </c>
       <c r="I98">
         <v>343</v>
       </c>
       <c r="J98" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -8192,13 +8195,13 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>2339</v>
+        <v>1633</v>
       </c>
       <c r="I99">
         <v>1639</v>
       </c>
       <c r="J99" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -8224,13 +8227,13 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>2339</v>
+        <v>199</v>
       </c>
       <c r="I100">
         <v>204</v>
       </c>
       <c r="J100" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -8256,13 +8259,13 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>2339</v>
+        <v>5689</v>
       </c>
       <c r="I101">
         <v>5693</v>
       </c>
       <c r="J101" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -8287,14 +8290,14 @@
       <c r="G102" t="s">
         <v>1126</v>
       </c>
-      <c r="H102">
-        <v>2339</v>
+      <c r="H102" t="s">
+        <v>1127</v>
       </c>
       <c r="I102">
         <v>1163</v>
       </c>
       <c r="J102" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -8320,13 +8323,13 @@
         <v>166</v>
       </c>
       <c r="H103">
-        <v>2339</v>
+        <v>3189</v>
       </c>
       <c r="I103">
         <v>3027</v>
       </c>
       <c r="J103" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -8352,13 +8355,13 @@
         <v>94</v>
       </c>
       <c r="H104">
-        <v>2339</v>
+        <v>3014</v>
       </c>
       <c r="I104">
         <v>2924</v>
       </c>
       <c r="J104" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -8384,13 +8387,13 @@
         <v>50</v>
       </c>
       <c r="H105">
-        <v>2339</v>
+        <v>189</v>
       </c>
       <c r="I105">
         <v>143</v>
       </c>
       <c r="J105" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -8416,13 +8419,13 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>2339</v>
+        <v>133</v>
       </c>
       <c r="I106">
         <v>137</v>
       </c>
       <c r="J106" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -8448,13 +8451,13 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>2339</v>
+        <v>133</v>
       </c>
       <c r="I107">
         <v>137</v>
       </c>
       <c r="J107" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -8480,13 +8483,13 @@
         <v>2</v>
       </c>
       <c r="H108">
-        <v>2339</v>
+        <v>5744</v>
       </c>
       <c r="I108">
         <v>5750</v>
       </c>
       <c r="J108" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -8512,13 +8515,13 @@
         <v>2</v>
       </c>
       <c r="H109">
-        <v>2339</v>
+        <v>5744</v>
       </c>
       <c r="I109">
         <v>5750</v>
       </c>
       <c r="J109" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -8544,13 +8547,13 @@
         <v>60</v>
       </c>
       <c r="H110">
-        <v>2339</v>
+        <v>1515</v>
       </c>
       <c r="I110">
         <v>1459</v>
       </c>
       <c r="J110" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -8575,14 +8578,14 @@
       <c r="G111" t="s">
         <v>1126</v>
       </c>
-      <c r="H111">
-        <v>2339</v>
+      <c r="H111" t="s">
+        <v>1127</v>
       </c>
       <c r="I111">
         <v>1141</v>
       </c>
       <c r="J111" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -8608,13 +8611,13 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>2339</v>
+        <v>127</v>
       </c>
       <c r="I112">
         <v>131</v>
       </c>
       <c r="J112" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -8640,13 +8643,13 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>2339</v>
+        <v>97</v>
       </c>
       <c r="I113">
         <v>102</v>
       </c>
       <c r="J113" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -8672,13 +8675,13 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>2339</v>
+        <v>4483</v>
       </c>
       <c r="I114">
         <v>4488</v>
       </c>
       <c r="J114" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -8704,13 +8707,13 @@
         <v>95</v>
       </c>
       <c r="H115">
-        <v>2339</v>
+        <v>2433</v>
       </c>
       <c r="I115">
         <v>2342</v>
       </c>
       <c r="J115" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -8736,13 +8739,13 @@
         <v>69</v>
       </c>
       <c r="H116">
-        <v>2339</v>
+        <v>2415</v>
       </c>
       <c r="I116">
         <v>2350</v>
       </c>
       <c r="J116" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -8768,13 +8771,13 @@
         <v>207</v>
       </c>
       <c r="H117">
-        <v>2339</v>
+        <v>2578</v>
       </c>
       <c r="I117">
         <v>2375</v>
       </c>
       <c r="J117" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -8800,13 +8803,13 @@
         <v>207</v>
       </c>
       <c r="H118">
-        <v>2339</v>
+        <v>2578</v>
       </c>
       <c r="I118">
         <v>2375</v>
       </c>
       <c r="J118" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -8832,13 +8835,13 @@
         <v>135</v>
       </c>
       <c r="H119">
-        <v>2339</v>
+        <v>2570</v>
       </c>
       <c r="I119">
         <v>2439</v>
       </c>
       <c r="J119" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -8864,13 +8867,13 @@
         <v>361</v>
       </c>
       <c r="H120">
-        <v>2339</v>
+        <v>2927</v>
       </c>
       <c r="I120">
         <v>2570</v>
       </c>
       <c r="J120" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -8896,13 +8899,13 @@
         <v>44</v>
       </c>
       <c r="H121">
-        <v>2339</v>
+        <v>2110</v>
       </c>
       <c r="I121">
         <v>2070</v>
       </c>
       <c r="J121" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -8928,13 +8931,13 @@
         <v>165</v>
       </c>
       <c r="H122">
-        <v>2339</v>
+        <v>2257</v>
       </c>
       <c r="I122">
         <v>2096</v>
       </c>
       <c r="J122" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -8960,13 +8963,13 @@
         <v>161</v>
       </c>
       <c r="H123">
-        <v>2339</v>
+        <v>2969</v>
       </c>
       <c r="I123">
         <v>2812</v>
       </c>
       <c r="J123" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -8992,13 +8995,13 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>2339</v>
+        <v>97</v>
       </c>
       <c r="I124">
         <v>101</v>
       </c>
       <c r="J124" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -9024,13 +9027,13 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>2339</v>
+        <v>2065</v>
       </c>
       <c r="I125">
         <v>2069</v>
       </c>
       <c r="J125" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -9056,13 +9059,13 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>2339</v>
+        <v>2239</v>
       </c>
       <c r="I126">
         <v>2245</v>
       </c>
       <c r="J126" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -9088,13 +9091,13 @@
         <v>69</v>
       </c>
       <c r="H127">
-        <v>2339</v>
+        <v>2108</v>
       </c>
       <c r="I127">
         <v>2043</v>
       </c>
       <c r="J127" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -9120,13 +9123,13 @@
         <v>1583</v>
       </c>
       <c r="H128">
-        <v>2339</v>
+        <v>3714</v>
       </c>
       <c r="I128">
         <v>2135</v>
       </c>
       <c r="J128" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -9152,13 +9155,13 @@
         <v>45</v>
       </c>
       <c r="H129">
-        <v>2339</v>
+        <v>1938</v>
       </c>
       <c r="I129">
         <v>1897</v>
       </c>
       <c r="J129" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -9184,13 +9187,13 @@
         <v>454</v>
       </c>
       <c r="H130">
-        <v>2339</v>
+        <v>3009</v>
       </c>
       <c r="I130">
         <v>2559</v>
       </c>
       <c r="J130" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -9216,13 +9219,13 @@
         <v>100</v>
       </c>
       <c r="H131">
-        <v>2339</v>
+        <v>3065</v>
       </c>
       <c r="I131">
         <v>2969</v>
       </c>
       <c r="J131" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -9248,13 +9251,13 @@
         <v>183</v>
       </c>
       <c r="H132">
-        <v>2339</v>
+        <v>1498</v>
       </c>
       <c r="I132">
         <v>1319</v>
       </c>
       <c r="J132" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -9280,13 +9283,13 @@
         <v>200</v>
       </c>
       <c r="H133">
-        <v>2339</v>
+        <v>2229</v>
       </c>
       <c r="I133">
         <v>2033</v>
       </c>
       <c r="J133" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -9312,13 +9315,13 @@
         <v>234</v>
       </c>
       <c r="H134">
-        <v>2339</v>
+        <v>274</v>
       </c>
       <c r="I134">
         <v>44</v>
       </c>
       <c r="J134" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -9343,14 +9346,14 @@
       <c r="G135" t="s">
         <v>1126</v>
       </c>
-      <c r="H135">
-        <v>2339</v>
+      <c r="H135" t="s">
+        <v>1127</v>
       </c>
       <c r="I135">
         <v>1091</v>
       </c>
       <c r="J135" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -9376,13 +9379,13 @@
         <v>6</v>
       </c>
       <c r="H136">
-        <v>2339</v>
+        <v>2043</v>
       </c>
       <c r="I136">
         <v>2041</v>
       </c>
       <c r="J136" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -9408,13 +9411,13 @@
         <v>198</v>
       </c>
       <c r="H137">
-        <v>2339</v>
+        <v>2037</v>
       </c>
       <c r="I137">
         <v>1843</v>
       </c>
       <c r="J137" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -9440,13 +9443,13 @@
         <v>452</v>
       </c>
       <c r="H138">
-        <v>2339</v>
+        <v>6189</v>
       </c>
       <c r="I138">
         <v>5741</v>
       </c>
       <c r="J138" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -9472,13 +9475,13 @@
         <v>232</v>
       </c>
       <c r="H139">
-        <v>2339</v>
+        <v>394</v>
       </c>
       <c r="I139">
         <v>166</v>
       </c>
       <c r="J139" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -9504,13 +9507,13 @@
         <v>142</v>
       </c>
       <c r="H140">
-        <v>2339</v>
+        <v>3121</v>
       </c>
       <c r="I140">
         <v>2983</v>
       </c>
       <c r="J140" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -9536,13 +9539,13 @@
         <v>16</v>
       </c>
       <c r="H141">
-        <v>2339</v>
+        <v>143</v>
       </c>
       <c r="I141">
         <v>131</v>
       </c>
       <c r="J141" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -9568,13 +9571,13 @@
         <v>4</v>
       </c>
       <c r="H142">
-        <v>2339</v>
+        <v>7</v>
       </c>
       <c r="I142">
         <v>7</v>
       </c>
       <c r="J142" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -9600,13 +9603,13 @@
         <v>7</v>
       </c>
       <c r="H143">
-        <v>2339</v>
+        <v>1987</v>
       </c>
       <c r="I143">
         <v>1984</v>
       </c>
       <c r="J143" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -9632,13 +9635,13 @@
         <v>198</v>
       </c>
       <c r="H144">
-        <v>2339</v>
+        <v>2171</v>
       </c>
       <c r="I144">
         <v>1977</v>
       </c>
       <c r="J144" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -9664,13 +9667,13 @@
         <v>491</v>
       </c>
       <c r="H145">
-        <v>2339</v>
+        <v>3033</v>
       </c>
       <c r="I145">
         <v>2546</v>
       </c>
       <c r="J145" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -9696,13 +9699,13 @@
         <v>4</v>
       </c>
       <c r="H146">
-        <v>2339</v>
+        <v>182</v>
       </c>
       <c r="I146">
         <v>182</v>
       </c>
       <c r="J146" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -9728,13 +9731,13 @@
         <v>13</v>
       </c>
       <c r="H147">
-        <v>2339</v>
+        <v>24</v>
       </c>
       <c r="I147">
         <v>15</v>
       </c>
       <c r="J147" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -9759,14 +9762,14 @@
       <c r="G148" t="s">
         <v>1126</v>
       </c>
-      <c r="H148">
-        <v>2339</v>
+      <c r="H148" t="s">
+        <v>1127</v>
       </c>
       <c r="I148">
         <v>1347</v>
       </c>
       <c r="J148" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -9792,13 +9795,13 @@
         <v>179</v>
       </c>
       <c r="H149">
-        <v>2339</v>
+        <v>2320</v>
       </c>
       <c r="I149">
         <v>2145</v>
       </c>
       <c r="J149" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -9824,13 +9827,13 @@
         <v>69</v>
       </c>
       <c r="H150">
-        <v>2339</v>
+        <v>1966</v>
       </c>
       <c r="I150">
         <v>1901</v>
       </c>
       <c r="J150" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -9856,13 +9859,13 @@
         <v>5</v>
       </c>
       <c r="H151">
-        <v>2339</v>
+        <v>1864</v>
       </c>
       <c r="I151">
         <v>1863</v>
       </c>
       <c r="J151" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -9888,13 +9891,13 @@
         <v>66</v>
       </c>
       <c r="H152">
-        <v>2339</v>
+        <v>2658</v>
       </c>
       <c r="I152">
         <v>2596</v>
       </c>
       <c r="J152" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -9920,13 +9923,13 @@
         <v>143</v>
       </c>
       <c r="H153">
-        <v>2339</v>
+        <v>2581</v>
       </c>
       <c r="I153">
         <v>2442</v>
       </c>
       <c r="J153" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -9952,13 +9955,13 @@
         <v>104</v>
       </c>
       <c r="H154">
-        <v>2339</v>
+        <v>2318</v>
       </c>
       <c r="I154">
         <v>2218</v>
       </c>
       <c r="J154" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -9983,14 +9986,14 @@
       <c r="G155" t="s">
         <v>1126</v>
       </c>
-      <c r="H155">
-        <v>2339</v>
+      <c r="H155" t="s">
+        <v>1127</v>
       </c>
       <c r="I155">
         <v>1016</v>
       </c>
       <c r="J155" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -10016,13 +10019,13 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>2339</v>
+        <v>253</v>
       </c>
       <c r="I156">
         <v>257</v>
       </c>
       <c r="J156" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -10048,13 +10051,13 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>2339</v>
+        <v>103</v>
       </c>
       <c r="I157">
         <v>105</v>
       </c>
       <c r="J157" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -10080,13 +10083,13 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>2339</v>
+        <v>4585</v>
       </c>
       <c r="I158">
         <v>4588</v>
       </c>
       <c r="J158" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -10112,13 +10115,13 @@
         <v>2</v>
       </c>
       <c r="H159">
-        <v>2339</v>
+        <v>62</v>
       </c>
       <c r="I159">
         <v>70</v>
       </c>
       <c r="J159" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -10144,13 +10147,13 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>2339</v>
+        <v>4801</v>
       </c>
       <c r="I160">
         <v>4805</v>
       </c>
       <c r="J160" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -10175,14 +10178,14 @@
       <c r="G161" t="s">
         <v>1126</v>
       </c>
-      <c r="H161">
-        <v>2339</v>
+      <c r="H161" t="s">
+        <v>1127</v>
       </c>
       <c r="I161">
         <v>1183</v>
       </c>
       <c r="J161" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -10208,13 +10211,13 @@
         <v>121</v>
       </c>
       <c r="H162">
-        <v>2339</v>
+        <v>2616</v>
       </c>
       <c r="I162">
         <v>2499</v>
       </c>
       <c r="J162" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -10240,13 +10243,13 @@
         <v>337</v>
       </c>
       <c r="H163">
-        <v>2339</v>
+        <v>635</v>
       </c>
       <c r="I163">
         <v>302</v>
       </c>
       <c r="J163" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -10272,13 +10275,13 @@
         <v>86</v>
       </c>
       <c r="H164">
-        <v>2339</v>
+        <v>1544</v>
       </c>
       <c r="I164">
         <v>1462</v>
       </c>
       <c r="J164" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -10304,13 +10307,13 @@
         <v>86</v>
       </c>
       <c r="H165">
-        <v>2339</v>
+        <v>1544</v>
       </c>
       <c r="I165">
         <v>1462</v>
       </c>
       <c r="J165" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -10336,13 +10339,13 @@
         <v>337</v>
       </c>
       <c r="H166">
-        <v>2339</v>
+        <v>635</v>
       </c>
       <c r="I166">
         <v>302</v>
       </c>
       <c r="J166" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -10368,13 +10371,13 @@
         <v>191</v>
       </c>
       <c r="H167">
-        <v>2339</v>
+        <v>2654</v>
       </c>
       <c r="I167">
         <v>2467</v>
       </c>
       <c r="J167" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -10399,14 +10402,14 @@
       <c r="G168" t="s">
         <v>1126</v>
       </c>
-      <c r="H168">
-        <v>2339</v>
+      <c r="H168" t="s">
+        <v>1127</v>
       </c>
       <c r="I168">
         <v>2006</v>
       </c>
       <c r="J168" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -10431,14 +10434,14 @@
       <c r="G169" t="s">
         <v>1126</v>
       </c>
-      <c r="H169">
-        <v>2339</v>
+      <c r="H169" t="s">
+        <v>1127</v>
       </c>
       <c r="I169">
         <v>695</v>
       </c>
       <c r="J169" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -10464,13 +10467,13 @@
         <v>85</v>
       </c>
       <c r="H170">
-        <v>2339</v>
+        <v>2883</v>
       </c>
       <c r="I170">
         <v>2802</v>
       </c>
       <c r="J170" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -10495,14 +10498,14 @@
       <c r="G171" t="s">
         <v>1126</v>
       </c>
-      <c r="H171">
-        <v>2339</v>
+      <c r="H171" t="s">
+        <v>1127</v>
       </c>
       <c r="I171">
         <v>2313</v>
       </c>
       <c r="J171" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -10528,13 +10531,13 @@
         <v>84</v>
       </c>
       <c r="H172">
-        <v>2339</v>
+        <v>2573</v>
       </c>
       <c r="I172">
         <v>2493</v>
       </c>
       <c r="J172" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -10560,13 +10563,13 @@
         <v>84</v>
       </c>
       <c r="H173">
-        <v>2339</v>
+        <v>2573</v>
       </c>
       <c r="I173">
         <v>2493</v>
       </c>
       <c r="J173" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -10592,13 +10595,13 @@
         <v>12</v>
       </c>
       <c r="H174">
-        <v>2339</v>
+        <v>59</v>
       </c>
       <c r="I174">
         <v>51</v>
       </c>
       <c r="J174" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -10624,13 +10627,13 @@
         <v>181</v>
       </c>
       <c r="H175">
-        <v>2339</v>
+        <v>2991</v>
       </c>
       <c r="I175">
         <v>2814</v>
       </c>
       <c r="J175" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -10656,13 +10659,13 @@
         <v>538</v>
       </c>
       <c r="H176">
-        <v>2339</v>
+        <v>2833</v>
       </c>
       <c r="I176">
         <v>2299</v>
       </c>
       <c r="J176" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -10688,13 +10691,13 @@
         <v>617</v>
       </c>
       <c r="H177">
-        <v>2339</v>
+        <v>2198</v>
       </c>
       <c r="I177">
         <v>1585</v>
       </c>
       <c r="J177" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -10720,13 +10723,13 @@
         <v>6</v>
       </c>
       <c r="H178">
-        <v>2339</v>
+        <v>1970</v>
       </c>
       <c r="I178">
         <v>1968</v>
       </c>
       <c r="J178" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -10752,13 +10755,13 @@
         <v>6</v>
       </c>
       <c r="H179">
-        <v>2339</v>
+        <v>1970</v>
       </c>
       <c r="I179">
         <v>1968</v>
       </c>
       <c r="J179" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -10784,13 +10787,13 @@
         <v>265</v>
       </c>
       <c r="H180">
-        <v>2339</v>
+        <v>2519</v>
       </c>
       <c r="I180">
         <v>2258</v>
       </c>
       <c r="J180" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -10816,13 +10819,13 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>2339</v>
+        <v>88</v>
       </c>
       <c r="I181">
         <v>88</v>
       </c>
       <c r="J181" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -10848,13 +10851,13 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>2339</v>
+        <v>1444</v>
       </c>
       <c r="I182">
         <v>1444</v>
       </c>
       <c r="J182" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -10879,14 +10882,14 @@
       <c r="G183" t="s">
         <v>1126</v>
       </c>
-      <c r="H183">
-        <v>2339</v>
+      <c r="H183" t="s">
+        <v>1127</v>
       </c>
       <c r="I183">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -10911,14 +10914,14 @@
       <c r="G184" t="s">
         <v>1126</v>
       </c>
-      <c r="H184">
-        <v>2339</v>
+      <c r="H184" t="s">
+        <v>1127</v>
       </c>
       <c r="I184">
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -10944,13 +10947,13 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>2339</v>
+        <v>19</v>
       </c>
       <c r="I185">
         <v>23</v>
       </c>
       <c r="J185" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -10976,13 +10979,13 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>2339</v>
+        <v>169</v>
       </c>
       <c r="I186">
         <v>171</v>
       </c>
       <c r="J186" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -11008,13 +11011,13 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>2339</v>
+        <v>37</v>
       </c>
       <c r="I187">
         <v>40</v>
       </c>
       <c r="J187" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -11040,13 +11043,13 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>2339</v>
+        <v>127</v>
       </c>
       <c r="I188">
         <v>134</v>
       </c>
       <c r="J188" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -11072,13 +11075,13 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>2339</v>
+        <v>43</v>
       </c>
       <c r="I189">
         <v>49</v>
       </c>
       <c r="J189" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -11104,13 +11107,13 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>2339</v>
+        <v>97</v>
       </c>
       <c r="I190">
         <v>100</v>
       </c>
       <c r="J190" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -11136,13 +11139,13 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>2339</v>
+        <v>5827</v>
       </c>
       <c r="I191">
         <v>5830</v>
       </c>
       <c r="J191" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -11167,14 +11170,14 @@
       <c r="G192" t="s">
         <v>1126</v>
       </c>
-      <c r="H192">
-        <v>2339</v>
+      <c r="H192" t="s">
+        <v>1127</v>
       </c>
       <c r="I192">
         <v>1498</v>
       </c>
       <c r="J192" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -11200,13 +11203,13 @@
         <v>644</v>
       </c>
       <c r="H193">
-        <v>2339</v>
+        <v>3516</v>
       </c>
       <c r="I193">
         <v>2876</v>
       </c>
       <c r="J193" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -11232,13 +11235,13 @@
         <v>170</v>
       </c>
       <c r="H194">
-        <v>2339</v>
+        <v>2789</v>
       </c>
       <c r="I194">
         <v>2623</v>
       </c>
       <c r="J194" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -11264,13 +11267,13 @@
         <v>1226</v>
       </c>
       <c r="H195">
-        <v>2339</v>
+        <v>2955</v>
       </c>
       <c r="I195">
         <v>1733</v>
       </c>
       <c r="J195" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -11295,14 +11298,14 @@
       <c r="G196" t="s">
         <v>1126</v>
       </c>
-      <c r="H196">
-        <v>2339</v>
+      <c r="H196" t="s">
+        <v>1127</v>
       </c>
       <c r="I196">
         <v>1076</v>
       </c>
       <c r="J196" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -11328,13 +11331,13 @@
         <v>1161</v>
       </c>
       <c r="H197">
-        <v>2339</v>
+        <v>2647</v>
       </c>
       <c r="I197">
         <v>1490</v>
       </c>
       <c r="J197" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -11359,14 +11362,14 @@
       <c r="G198" t="s">
         <v>1126</v>
       </c>
-      <c r="H198">
-        <v>2339</v>
+      <c r="H198" t="s">
+        <v>1127</v>
       </c>
       <c r="I198">
         <v>1979</v>
       </c>
       <c r="J198" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -11392,13 +11395,13 @@
         <v>301</v>
       </c>
       <c r="H199">
-        <v>2339</v>
+        <v>2888</v>
       </c>
       <c r="I199">
         <v>2591</v>
       </c>
       <c r="J199" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -11424,13 +11427,13 @@
         <v>608</v>
       </c>
       <c r="H200">
-        <v>2339</v>
+        <v>3339</v>
       </c>
       <c r="I200">
         <v>2735</v>
       </c>
       <c r="J200" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -11456,13 +11459,13 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>2339</v>
+        <v>415</v>
       </c>
       <c r="I201">
         <v>421</v>
       </c>
       <c r="J201" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -11488,13 +11491,13 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>2339</v>
+        <v>169</v>
       </c>
       <c r="I202">
         <v>172</v>
       </c>
       <c r="J202" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -11520,13 +11523,13 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>2339</v>
+        <v>4261</v>
       </c>
       <c r="I203">
         <v>4266</v>
       </c>
       <c r="J203" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -11552,13 +11555,13 @@
         <v>77</v>
       </c>
       <c r="H204">
-        <v>2339</v>
+        <v>2265</v>
       </c>
       <c r="I204">
         <v>2192</v>
       </c>
       <c r="J204" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -11583,14 +11586,14 @@
       <c r="G205" t="s">
         <v>1126</v>
       </c>
-      <c r="H205">
-        <v>2339</v>
+      <c r="H205" t="s">
+        <v>1127</v>
       </c>
       <c r="I205">
         <v>2477</v>
       </c>
       <c r="J205" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -11615,14 +11618,14 @@
       <c r="G206" t="s">
         <v>1126</v>
       </c>
-      <c r="H206">
-        <v>2339</v>
+      <c r="H206" t="s">
+        <v>1127</v>
       </c>
       <c r="I206">
         <v>1435</v>
       </c>
       <c r="J206" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -11647,14 +11650,14 @@
       <c r="G207" t="s">
         <v>1126</v>
       </c>
-      <c r="H207">
-        <v>2339</v>
+      <c r="H207" t="s">
+        <v>1127</v>
       </c>
       <c r="I207">
         <v>2477</v>
       </c>
       <c r="J207" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -11679,14 +11682,14 @@
       <c r="G208" t="s">
         <v>1126</v>
       </c>
-      <c r="H208">
-        <v>2339</v>
+      <c r="H208" t="s">
+        <v>1127</v>
       </c>
       <c r="I208">
         <v>2142</v>
       </c>
       <c r="J208" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -11711,14 +11714,14 @@
       <c r="G209" t="s">
         <v>1126</v>
       </c>
-      <c r="H209">
-        <v>2339</v>
+      <c r="H209" t="s">
+        <v>1127</v>
       </c>
       <c r="I209">
         <v>2142</v>
       </c>
       <c r="J209" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -11743,14 +11746,14 @@
       <c r="G210" t="s">
         <v>1126</v>
       </c>
-      <c r="H210">
-        <v>2339</v>
+      <c r="H210" t="s">
+        <v>1127</v>
       </c>
       <c r="I210">
         <v>1435</v>
       </c>
       <c r="J210" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -11776,13 +11779,13 @@
         <v>61</v>
       </c>
       <c r="H211">
-        <v>2339</v>
+        <v>180</v>
       </c>
       <c r="I211">
         <v>123</v>
       </c>
       <c r="J211" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -11807,14 +11810,14 @@
       <c r="G212" t="s">
         <v>1126</v>
       </c>
-      <c r="H212">
-        <v>2339</v>
+      <c r="H212" t="s">
+        <v>1127</v>
       </c>
       <c r="I212">
         <v>1748</v>
       </c>
       <c r="J212" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -11840,13 +11843,13 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>2339</v>
+        <v>613</v>
       </c>
       <c r="I213">
         <v>620</v>
       </c>
       <c r="J213" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -11872,13 +11875,13 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>2339</v>
+        <v>13</v>
       </c>
       <c r="I214">
         <v>19</v>
       </c>
       <c r="J214" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -11904,13 +11907,13 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>2339</v>
+        <v>373</v>
       </c>
       <c r="I215">
         <v>378</v>
       </c>
       <c r="J215" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -11936,13 +11939,13 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>2339</v>
+        <v>91</v>
       </c>
       <c r="I216">
         <v>97</v>
       </c>
       <c r="J216" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -11968,13 +11971,13 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>2339</v>
+        <v>379</v>
       </c>
       <c r="I217">
         <v>386</v>
       </c>
       <c r="J217" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -12000,13 +12003,13 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>2339</v>
+        <v>5521</v>
       </c>
       <c r="I218">
         <v>5527</v>
       </c>
       <c r="J218" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -12032,13 +12035,13 @@
         <v>849</v>
       </c>
       <c r="H219">
-        <v>2339</v>
+        <v>3823</v>
       </c>
       <c r="I219">
         <v>2978</v>
       </c>
       <c r="J219" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -12064,13 +12067,13 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>2339</v>
+        <v>133</v>
       </c>
       <c r="I220">
         <v>140</v>
       </c>
       <c r="J220" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -12096,13 +12099,13 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>2339</v>
+        <v>5569</v>
       </c>
       <c r="I221">
         <v>5574</v>
       </c>
       <c r="J221" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -12128,13 +12131,13 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>2339</v>
+        <v>60</v>
       </c>
       <c r="I222">
         <v>60</v>
       </c>
       <c r="J222" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -12160,13 +12163,13 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>2339</v>
+        <v>927</v>
       </c>
       <c r="I223">
         <v>927</v>
       </c>
       <c r="J223" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -12191,14 +12194,14 @@
       <c r="G224" t="s">
         <v>1126</v>
       </c>
-      <c r="H224">
-        <v>2339</v>
+      <c r="H224" t="s">
+        <v>1127</v>
       </c>
       <c r="I224">
         <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -12224,13 +12227,13 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>2339</v>
+        <v>1783</v>
       </c>
       <c r="I225">
         <v>1783</v>
       </c>
       <c r="J225" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -12255,14 +12258,14 @@
       <c r="G226" t="s">
         <v>1126</v>
       </c>
-      <c r="H226">
-        <v>2339</v>
+      <c r="H226" t="s">
+        <v>1127</v>
       </c>
       <c r="I226">
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -12287,14 +12290,14 @@
       <c r="G227" t="s">
         <v>1126</v>
       </c>
-      <c r="H227">
-        <v>2339</v>
+      <c r="H227" t="s">
+        <v>1127</v>
       </c>
       <c r="I227">
         <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -12320,13 +12323,13 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>2339</v>
+        <v>60</v>
       </c>
       <c r="I228">
         <v>60</v>
       </c>
       <c r="J228" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -12352,13 +12355,13 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>2339</v>
+        <v>927</v>
       </c>
       <c r="I229">
         <v>927</v>
       </c>
       <c r="J229" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -12383,14 +12386,14 @@
       <c r="G230" t="s">
         <v>1126</v>
       </c>
-      <c r="H230">
-        <v>2339</v>
+      <c r="H230" t="s">
+        <v>1127</v>
       </c>
       <c r="I230">
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -12416,13 +12419,13 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>2339</v>
+        <v>1783</v>
       </c>
       <c r="I231">
         <v>1783</v>
       </c>
       <c r="J231" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -12447,14 +12450,14 @@
       <c r="G232" t="s">
         <v>1126</v>
       </c>
-      <c r="H232">
-        <v>2339</v>
+      <c r="H232" t="s">
+        <v>1127</v>
       </c>
       <c r="I232">
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -12479,14 +12482,14 @@
       <c r="G233" t="s">
         <v>1126</v>
       </c>
-      <c r="H233">
-        <v>2339</v>
+      <c r="H233" t="s">
+        <v>1127</v>
       </c>
       <c r="I233">
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -12512,13 +12515,13 @@
         <v>14</v>
       </c>
       <c r="H234">
-        <v>2339</v>
+        <v>33</v>
       </c>
       <c r="I234">
         <v>23</v>
       </c>
       <c r="J234" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -12544,13 +12547,13 @@
         <v>645</v>
       </c>
       <c r="H235">
-        <v>2339</v>
+        <v>5430</v>
       </c>
       <c r="I235">
         <v>4789</v>
       </c>
       <c r="J235" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -12576,13 +12579,13 @@
         <v>5</v>
       </c>
       <c r="H236">
-        <v>2339</v>
+        <v>229</v>
       </c>
       <c r="I236">
         <v>228</v>
       </c>
       <c r="J236" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -12608,13 +12611,13 @@
         <v>494</v>
       </c>
       <c r="H237">
-        <v>2339</v>
+        <v>617</v>
       </c>
       <c r="I237">
         <v>127</v>
       </c>
       <c r="J237" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -12640,13 +12643,13 @@
         <v>320</v>
       </c>
       <c r="H238">
-        <v>2339</v>
+        <v>3096</v>
       </c>
       <c r="I238">
         <v>2780</v>
       </c>
       <c r="J238" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -12671,14 +12674,14 @@
       <c r="G239" t="s">
         <v>1126</v>
       </c>
-      <c r="H239">
-        <v>2339</v>
+      <c r="H239" t="s">
+        <v>1127</v>
       </c>
       <c r="I239">
         <v>1198</v>
       </c>
       <c r="J239" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -12703,14 +12706,14 @@
       <c r="G240" t="s">
         <v>1126</v>
       </c>
-      <c r="H240">
-        <v>2339</v>
+      <c r="H240" t="s">
+        <v>1127</v>
       </c>
       <c r="I240">
         <v>1292</v>
       </c>
       <c r="J240" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -12736,13 +12739,13 @@
         <v>86</v>
       </c>
       <c r="H241">
-        <v>2339</v>
+        <v>2580</v>
       </c>
       <c r="I241">
         <v>2498</v>
       </c>
       <c r="J241" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -12768,13 +12771,13 @@
         <v>127</v>
       </c>
       <c r="H242">
-        <v>2339</v>
+        <v>2001</v>
       </c>
       <c r="I242">
         <v>1878</v>
       </c>
       <c r="J242" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -12800,13 +12803,13 @@
         <v>60</v>
       </c>
       <c r="H243">
-        <v>2339</v>
+        <v>1987</v>
       </c>
       <c r="I243">
         <v>1931</v>
       </c>
       <c r="J243" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -12832,13 +12835,13 @@
         <v>457</v>
       </c>
       <c r="H244">
-        <v>2339</v>
+        <v>501</v>
       </c>
       <c r="I244">
         <v>48</v>
       </c>
       <c r="J244" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -12864,13 +12867,13 @@
         <v>90</v>
       </c>
       <c r="H245">
-        <v>2339</v>
+        <v>1082</v>
       </c>
       <c r="I245">
         <v>996</v>
       </c>
       <c r="J245" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -12896,13 +12899,13 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>2339</v>
+        <v>307</v>
       </c>
       <c r="I246">
         <v>311</v>
       </c>
       <c r="J246" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -12928,13 +12931,13 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>2339</v>
+        <v>4969</v>
       </c>
       <c r="I247">
         <v>4971</v>
       </c>
       <c r="J247" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -12960,13 +12963,13 @@
         <v>74</v>
       </c>
       <c r="H248">
-        <v>2339</v>
+        <v>2359</v>
       </c>
       <c r="I248">
         <v>2289</v>
       </c>
       <c r="J248" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -12992,13 +12995,13 @@
         <v>116</v>
       </c>
       <c r="H249">
-        <v>2339</v>
+        <v>222</v>
       </c>
       <c r="I249">
         <v>110</v>
       </c>
       <c r="J249" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -13024,13 +13027,13 @@
         <v>1262</v>
       </c>
       <c r="H250">
-        <v>2339</v>
+        <v>1703</v>
       </c>
       <c r="I250">
         <v>445</v>
       </c>
       <c r="J250" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -13056,13 +13059,13 @@
         <v>6</v>
       </c>
       <c r="H251">
-        <v>2339</v>
+        <v>4211</v>
       </c>
       <c r="I251">
         <v>4209</v>
       </c>
       <c r="J251" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -13088,13 +13091,13 @@
         <v>18</v>
       </c>
       <c r="H252">
-        <v>2339</v>
+        <v>244</v>
       </c>
       <c r="I252">
         <v>230</v>
       </c>
       <c r="J252" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -13120,13 +13123,13 @@
         <v>83</v>
       </c>
       <c r="H253">
-        <v>2339</v>
+        <v>2232</v>
       </c>
       <c r="I253">
         <v>2153</v>
       </c>
       <c r="J253" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -13151,14 +13154,14 @@
       <c r="G254" t="s">
         <v>1126</v>
       </c>
-      <c r="H254">
-        <v>2339</v>
+      <c r="H254" t="s">
+        <v>1127</v>
       </c>
       <c r="I254">
         <v>1413</v>
       </c>
       <c r="J254" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -13183,14 +13186,14 @@
       <c r="G255" t="s">
         <v>1126</v>
       </c>
-      <c r="H255">
-        <v>2339</v>
+      <c r="H255" t="s">
+        <v>1127</v>
       </c>
       <c r="I255">
         <v>900</v>
       </c>
       <c r="J255" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="256" spans="1:10">
@@ -13216,13 +13219,13 @@
         <v>143</v>
       </c>
       <c r="H256">
-        <v>2339</v>
+        <v>2759</v>
       </c>
       <c r="I256">
         <v>2620</v>
       </c>
       <c r="J256" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="257" spans="1:10">
@@ -13247,14 +13250,14 @@
       <c r="G257" t="s">
         <v>1126</v>
       </c>
-      <c r="H257">
-        <v>2339</v>
+      <c r="H257" t="s">
+        <v>1127</v>
       </c>
       <c r="I257">
         <v>1459</v>
       </c>
       <c r="J257" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -13280,13 +13283,13 @@
         <v>1066</v>
       </c>
       <c r="H258">
-        <v>2339</v>
+        <v>4071</v>
       </c>
       <c r="I258">
         <v>3009</v>
       </c>
       <c r="J258" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -13312,13 +13315,13 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>2339</v>
+        <v>3958</v>
       </c>
       <c r="I259">
         <v>3958</v>
       </c>
       <c r="J259" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="260" spans="1:10">
@@ -13344,13 +13347,13 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>2339</v>
+        <v>4249</v>
       </c>
       <c r="I260">
         <v>4255</v>
       </c>
       <c r="J260" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -13376,13 +13379,13 @@
         <v>81</v>
       </c>
       <c r="H261">
-        <v>2339</v>
+        <v>2693</v>
       </c>
       <c r="I261">
         <v>2616</v>
       </c>
       <c r="J261" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -13408,13 +13411,13 @@
         <v>16</v>
       </c>
       <c r="H262">
-        <v>2339</v>
+        <v>243</v>
       </c>
       <c r="I262">
         <v>231</v>
       </c>
       <c r="J262" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -13440,13 +13443,13 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>2339</v>
+        <v>3775</v>
       </c>
       <c r="I263">
         <v>3778</v>
       </c>
       <c r="J263" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -13472,13 +13475,13 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>2339</v>
+        <v>3775</v>
       </c>
       <c r="I264">
         <v>3778</v>
       </c>
       <c r="J264" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -13504,13 +13507,13 @@
         <v>259</v>
       </c>
       <c r="H265">
-        <v>2339</v>
+        <v>2055</v>
       </c>
       <c r="I265">
         <v>1800</v>
       </c>
       <c r="J265" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -13535,14 +13538,14 @@
       <c r="G266" t="s">
         <v>1126</v>
       </c>
-      <c r="H266">
-        <v>2339</v>
+      <c r="H266" t="s">
+        <v>1127</v>
       </c>
       <c r="I266">
         <v>679</v>
       </c>
       <c r="J266" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -13568,13 +13571,13 @@
         <v>561</v>
       </c>
       <c r="H267">
-        <v>2339</v>
+        <v>4932</v>
       </c>
       <c r="I267">
         <v>4375</v>
       </c>
       <c r="J267" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -13600,13 +13603,13 @@
         <v>11</v>
       </c>
       <c r="H268">
-        <v>2339</v>
+        <v>2910</v>
       </c>
       <c r="I268">
         <v>2903</v>
       </c>
       <c r="J268" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -13632,13 +13635,13 @@
         <v>114</v>
       </c>
       <c r="H269">
-        <v>2339</v>
+        <v>231</v>
       </c>
       <c r="I269">
         <v>121</v>
       </c>
       <c r="J269" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -13664,13 +13667,13 @@
         <v>15</v>
       </c>
       <c r="H270">
-        <v>2339</v>
+        <v>63</v>
       </c>
       <c r="I270">
         <v>52</v>
       </c>
       <c r="J270" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -13696,13 +13699,13 @@
         <v>76</v>
       </c>
       <c r="H271">
-        <v>2339</v>
+        <v>1939</v>
       </c>
       <c r="I271">
         <v>1867</v>
       </c>
       <c r="J271" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -13728,13 +13731,13 @@
         <v>76</v>
       </c>
       <c r="H272">
-        <v>2339</v>
+        <v>1939</v>
       </c>
       <c r="I272">
         <v>1867</v>
       </c>
       <c r="J272" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -13760,13 +13763,13 @@
         <v>64</v>
       </c>
       <c r="H273">
-        <v>2339</v>
+        <v>2512</v>
       </c>
       <c r="I273">
         <v>2452</v>
       </c>
       <c r="J273" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -13792,13 +13795,13 @@
         <v>3182</v>
       </c>
       <c r="H274">
-        <v>2339</v>
+        <v>3191</v>
       </c>
       <c r="I274">
         <v>13</v>
       </c>
       <c r="J274" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -13824,13 +13827,13 @@
         <v>143</v>
       </c>
       <c r="H275">
-        <v>2339</v>
+        <v>2226</v>
       </c>
       <c r="I275">
         <v>2087</v>
       </c>
       <c r="J275" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="276" spans="1:10">
@@ -13856,13 +13859,13 @@
         <v>101</v>
       </c>
       <c r="H276">
-        <v>2339</v>
+        <v>471</v>
       </c>
       <c r="I276">
         <v>374</v>
       </c>
       <c r="J276" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -13888,13 +13891,13 @@
         <v>4</v>
       </c>
       <c r="H277">
-        <v>2339</v>
+        <v>169</v>
       </c>
       <c r="I277">
         <v>169</v>
       </c>
       <c r="J277" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -13920,13 +13923,13 @@
         <v>271</v>
       </c>
       <c r="H278">
-        <v>2339</v>
+        <v>1948</v>
       </c>
       <c r="I278">
         <v>1681</v>
       </c>
       <c r="J278" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -13952,13 +13955,13 @@
         <v>94</v>
       </c>
       <c r="H279">
-        <v>2339</v>
+        <v>1682</v>
       </c>
       <c r="I279">
         <v>1592</v>
       </c>
       <c r="J279" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -13984,13 +13987,13 @@
         <v>75</v>
       </c>
       <c r="H280">
-        <v>2339</v>
+        <v>1964</v>
       </c>
       <c r="I280">
         <v>1893</v>
       </c>
       <c r="J280" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -14016,13 +14019,13 @@
         <v>88</v>
       </c>
       <c r="H281">
-        <v>2339</v>
+        <v>2455</v>
       </c>
       <c r="I281">
         <v>2371</v>
       </c>
       <c r="J281" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -14048,13 +14051,13 @@
         <v>88</v>
       </c>
       <c r="H282">
-        <v>2339</v>
+        <v>2455</v>
       </c>
       <c r="I282">
         <v>2371</v>
       </c>
       <c r="J282" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -14080,13 +14083,13 @@
         <v>2</v>
       </c>
       <c r="H283">
-        <v>2339</v>
+        <v>176</v>
       </c>
       <c r="I283">
         <v>180</v>
       </c>
       <c r="J283" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -14112,13 +14115,13 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>2339</v>
+        <v>289</v>
       </c>
       <c r="I284">
         <v>292</v>
       </c>
       <c r="J284" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -14144,13 +14147,13 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>2339</v>
+        <v>1075</v>
       </c>
       <c r="I285">
         <v>1082</v>
       </c>
       <c r="J285" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -14176,13 +14179,13 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>2339</v>
+        <v>4777</v>
       </c>
       <c r="I286">
         <v>4779</v>
       </c>
       <c r="J286" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="287" spans="1:10">
@@ -14208,13 +14211,13 @@
         <v>89</v>
       </c>
       <c r="H287">
-        <v>2339</v>
+        <v>2200</v>
       </c>
       <c r="I287">
         <v>2115</v>
       </c>
       <c r="J287" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="288" spans="1:10">
@@ -14240,13 +14243,13 @@
         <v>507</v>
       </c>
       <c r="H288">
-        <v>2339</v>
+        <v>2848</v>
       </c>
       <c r="I288">
         <v>2345</v>
       </c>
       <c r="J288" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="289" spans="1:10">
@@ -14272,13 +14275,13 @@
         <v>6</v>
       </c>
       <c r="H289">
-        <v>2339</v>
+        <v>2130</v>
       </c>
       <c r="I289">
         <v>2128</v>
       </c>
       <c r="J289" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="290" spans="1:10">
@@ -14304,13 +14307,13 @@
         <v>114</v>
       </c>
       <c r="H290">
-        <v>2339</v>
+        <v>2184</v>
       </c>
       <c r="I290">
         <v>2074</v>
       </c>
       <c r="J290" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="291" spans="1:10">
@@ -14335,14 +14338,14 @@
       <c r="G291" t="s">
         <v>1126</v>
       </c>
-      <c r="H291">
-        <v>2339</v>
+      <c r="H291" t="s">
+        <v>1127</v>
       </c>
       <c r="I291">
         <v>931</v>
       </c>
       <c r="J291" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="292" spans="1:10">
@@ -14368,13 +14371,13 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>2339</v>
+        <v>115</v>
       </c>
       <c r="I292">
         <v>117</v>
       </c>
       <c r="J292" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="293" spans="1:10">
@@ -14400,13 +14403,13 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <v>2339</v>
+        <v>5521</v>
       </c>
       <c r="I293">
         <v>5526</v>
       </c>
       <c r="J293" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="294" spans="1:10">
@@ -14432,13 +14435,13 @@
         <v>6</v>
       </c>
       <c r="H294">
-        <v>2339</v>
+        <v>2125</v>
       </c>
       <c r="I294">
         <v>2123</v>
       </c>
       <c r="J294" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -14464,13 +14467,13 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>2339</v>
+        <v>5881</v>
       </c>
       <c r="I295">
         <v>5883</v>
       </c>
       <c r="J295" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -14496,13 +14499,13 @@
         <v>64</v>
       </c>
       <c r="H296">
-        <v>2339</v>
+        <v>2634</v>
       </c>
       <c r="I296">
         <v>2574</v>
       </c>
       <c r="J296" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="297" spans="1:10">
@@ -14528,13 +14531,13 @@
         <v>180</v>
       </c>
       <c r="H297">
-        <v>2339</v>
+        <v>2810</v>
       </c>
       <c r="I297">
         <v>2634</v>
       </c>
       <c r="J297" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="298" spans="1:10">
@@ -14560,13 +14563,13 @@
         <v>133</v>
       </c>
       <c r="H298">
-        <v>2339</v>
+        <v>2623</v>
       </c>
       <c r="I298">
         <v>2494</v>
       </c>
       <c r="J298" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="299" spans="1:10">
@@ -14592,13 +14595,13 @@
         <v>2</v>
       </c>
       <c r="H299">
-        <v>2339</v>
+        <v>32</v>
       </c>
       <c r="I299">
         <v>34</v>
       </c>
       <c r="J299" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="300" spans="1:10">
@@ -14624,13 +14627,13 @@
         <v>2</v>
       </c>
       <c r="H300">
-        <v>2339</v>
+        <v>32</v>
       </c>
       <c r="I300">
         <v>34</v>
       </c>
       <c r="J300" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="301" spans="1:10">
@@ -14656,13 +14659,13 @@
         <v>1</v>
       </c>
       <c r="H301">
-        <v>2339</v>
+        <v>4861</v>
       </c>
       <c r="I301">
         <v>4864</v>
       </c>
       <c r="J301" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="302" spans="1:10">
@@ -14688,13 +14691,13 @@
         <v>1</v>
       </c>
       <c r="H302">
-        <v>2339</v>
+        <v>4861</v>
       </c>
       <c r="I302">
         <v>4864</v>
       </c>
       <c r="J302" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="303" spans="1:10">
@@ -14720,13 +14723,13 @@
         <v>1</v>
       </c>
       <c r="H303">
-        <v>2339</v>
+        <v>4477</v>
       </c>
       <c r="I303">
         <v>4480</v>
       </c>
       <c r="J303" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="304" spans="1:10">
@@ -14752,13 +14755,13 @@
         <v>1366</v>
       </c>
       <c r="H304">
-        <v>2339</v>
+        <v>3439</v>
       </c>
       <c r="I304">
         <v>2077</v>
       </c>
       <c r="J304" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="305" spans="1:10">
@@ -14784,13 +14787,13 @@
         <v>1</v>
       </c>
       <c r="H305">
-        <v>2339</v>
+        <v>331</v>
       </c>
       <c r="I305">
         <v>337</v>
       </c>
       <c r="J305" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="306" spans="1:10">
@@ -14816,13 +14819,13 @@
         <v>1</v>
       </c>
       <c r="H306">
-        <v>2339</v>
+        <v>331</v>
       </c>
       <c r="I306">
         <v>337</v>
       </c>
       <c r="J306" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="307" spans="1:10">
@@ -14848,13 +14851,13 @@
         <v>1</v>
       </c>
       <c r="H307">
-        <v>2339</v>
+        <v>4147</v>
       </c>
       <c r="I307">
         <v>4153</v>
       </c>
       <c r="J307" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -14880,13 +14883,13 @@
         <v>1</v>
       </c>
       <c r="H308">
-        <v>2339</v>
+        <v>4147</v>
       </c>
       <c r="I308">
         <v>4153</v>
       </c>
       <c r="J308" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="309" spans="1:10">
@@ -14912,13 +14915,13 @@
         <v>15</v>
       </c>
       <c r="H309">
-        <v>2339</v>
+        <v>104</v>
       </c>
       <c r="I309">
         <v>93</v>
       </c>
       <c r="J309" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="310" spans="1:10">
@@ -14944,13 +14947,13 @@
         <v>20</v>
       </c>
       <c r="H310">
-        <v>2339</v>
+        <v>101</v>
       </c>
       <c r="I310">
         <v>85</v>
       </c>
       <c r="J310" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="311" spans="1:10">
@@ -14976,13 +14979,13 @@
         <v>5</v>
       </c>
       <c r="H311">
-        <v>2339</v>
+        <v>5853</v>
       </c>
       <c r="I311">
         <v>5852</v>
       </c>
       <c r="J311" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="312" spans="1:10">
@@ -15008,13 +15011,13 @@
         <v>250</v>
       </c>
       <c r="H312">
-        <v>2339</v>
+        <v>2864</v>
       </c>
       <c r="I312">
         <v>2618</v>
       </c>
       <c r="J312" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="313" spans="1:10">
@@ -15040,13 +15043,13 @@
         <v>1</v>
       </c>
       <c r="H313">
-        <v>2339</v>
+        <v>157</v>
       </c>
       <c r="I313">
         <v>163</v>
       </c>
       <c r="J313" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="314" spans="1:10">
@@ -15072,13 +15075,13 @@
         <v>1</v>
       </c>
       <c r="H314">
-        <v>2339</v>
+        <v>541</v>
       </c>
       <c r="I314">
         <v>547</v>
       </c>
       <c r="J314" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -15104,13 +15107,13 @@
         <v>1</v>
       </c>
       <c r="H315">
-        <v>2339</v>
+        <v>211</v>
       </c>
       <c r="I315">
         <v>214</v>
       </c>
       <c r="J315" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="316" spans="1:10">
@@ -15136,13 +15139,13 @@
         <v>1</v>
       </c>
       <c r="H316">
-        <v>2339</v>
+        <v>559</v>
       </c>
       <c r="I316">
         <v>564</v>
       </c>
       <c r="J316" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -15168,13 +15171,13 @@
         <v>1</v>
       </c>
       <c r="H317">
-        <v>2339</v>
+        <v>49</v>
       </c>
       <c r="I317">
         <v>53</v>
       </c>
       <c r="J317" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="318" spans="1:10">
@@ -15200,13 +15203,13 @@
         <v>1</v>
       </c>
       <c r="H318">
-        <v>2339</v>
+        <v>217</v>
       </c>
       <c r="I318">
         <v>224</v>
       </c>
       <c r="J318" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -15231,14 +15234,14 @@
       <c r="G319" t="s">
         <v>1126</v>
       </c>
-      <c r="H319">
-        <v>2339</v>
+      <c r="H319" t="s">
+        <v>1127</v>
       </c>
       <c r="I319">
         <v>1399</v>
       </c>
       <c r="J319" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="320" spans="1:10">
@@ -15264,13 +15267,13 @@
         <v>119</v>
       </c>
       <c r="H320">
-        <v>2339</v>
+        <v>302</v>
       </c>
       <c r="I320">
         <v>187</v>
       </c>
       <c r="J320" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -15296,13 +15299,13 @@
         <v>6</v>
       </c>
       <c r="H321">
-        <v>2339</v>
+        <v>156</v>
       </c>
       <c r="I321">
         <v>154</v>
       </c>
       <c r="J321" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="322" spans="1:10">
@@ -15327,14 +15330,14 @@
       <c r="G322" t="s">
         <v>1126</v>
       </c>
-      <c r="H322">
-        <v>2339</v>
+      <c r="H322" t="s">
+        <v>1127</v>
       </c>
       <c r="I322">
         <v>2851</v>
       </c>
       <c r="J322" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="323" spans="1:10">
@@ -15360,13 +15363,13 @@
         <v>1</v>
       </c>
       <c r="H323">
-        <v>2339</v>
+        <v>211</v>
       </c>
       <c r="I323">
         <v>216</v>
       </c>
       <c r="J323" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="324" spans="1:10">
@@ -15392,13 +15395,13 @@
         <v>1</v>
       </c>
       <c r="H324">
-        <v>2339</v>
+        <v>157</v>
       </c>
       <c r="I324">
         <v>160</v>
       </c>
       <c r="J324" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="325" spans="1:10">
@@ -15424,13 +15427,13 @@
         <v>1</v>
       </c>
       <c r="H325">
-        <v>2339</v>
+        <v>103</v>
       </c>
       <c r="I325">
         <v>107</v>
       </c>
       <c r="J325" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -15456,13 +15459,13 @@
         <v>1</v>
       </c>
       <c r="H326">
-        <v>2339</v>
+        <v>103</v>
       </c>
       <c r="I326">
         <v>106</v>
       </c>
       <c r="J326" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="327" spans="1:10">
@@ -15488,13 +15491,13 @@
         <v>1</v>
       </c>
       <c r="H327">
-        <v>2339</v>
+        <v>4105</v>
       </c>
       <c r="I327">
         <v>4109</v>
       </c>
       <c r="J327" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="328" spans="1:10">
@@ -15520,13 +15523,13 @@
         <v>847</v>
       </c>
       <c r="H328">
-        <v>2339</v>
+        <v>1668</v>
       </c>
       <c r="I328">
         <v>825</v>
       </c>
       <c r="J328" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="329" spans="1:10">
@@ -15552,13 +15555,13 @@
         <v>1</v>
       </c>
       <c r="H329">
-        <v>2339</v>
+        <v>187</v>
       </c>
       <c r="I329">
         <v>192</v>
       </c>
       <c r="J329" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -15584,13 +15587,13 @@
         <v>1</v>
       </c>
       <c r="H330">
-        <v>2339</v>
+        <v>259</v>
       </c>
       <c r="I330">
         <v>266</v>
       </c>
       <c r="J330" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="331" spans="1:10">
@@ -15616,13 +15619,13 @@
         <v>1</v>
       </c>
       <c r="H331">
-        <v>2339</v>
+        <v>49</v>
       </c>
       <c r="I331">
         <v>54</v>
       </c>
       <c r="J331" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="332" spans="1:10">
@@ -15648,13 +15651,13 @@
         <v>1</v>
       </c>
       <c r="H332">
-        <v>2339</v>
+        <v>385</v>
       </c>
       <c r="I332">
         <v>388</v>
       </c>
       <c r="J332" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="333" spans="1:10">
@@ -15680,13 +15683,13 @@
         <v>1</v>
       </c>
       <c r="H333">
-        <v>2339</v>
+        <v>19</v>
       </c>
       <c r="I333">
         <v>21</v>
       </c>
       <c r="J333" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="334" spans="1:10">
@@ -15712,13 +15715,13 @@
         <v>1</v>
       </c>
       <c r="H334">
-        <v>2339</v>
+        <v>4297</v>
       </c>
       <c r="I334">
         <v>4302</v>
       </c>
       <c r="J334" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="335" spans="1:10">
@@ -15744,13 +15747,13 @@
         <v>12</v>
       </c>
       <c r="H335">
-        <v>2339</v>
+        <v>168</v>
       </c>
       <c r="I335">
         <v>160</v>
       </c>
       <c r="J335" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="336" spans="1:10">
@@ -15776,13 +15779,13 @@
         <v>107</v>
       </c>
       <c r="H336">
-        <v>2339</v>
+        <v>2264</v>
       </c>
       <c r="I336">
         <v>2161</v>
       </c>
       <c r="J336" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="337" spans="1:10">
@@ -15808,13 +15811,13 @@
         <v>32</v>
       </c>
       <c r="H337">
-        <v>2339</v>
+        <v>58</v>
       </c>
       <c r="I337">
         <v>30</v>
       </c>
       <c r="J337" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="338" spans="1:10">
@@ -15840,13 +15843,13 @@
         <v>134</v>
       </c>
       <c r="H338">
-        <v>2339</v>
+        <v>348</v>
       </c>
       <c r="I338">
         <v>218</v>
       </c>
       <c r="J338" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="339" spans="1:10">
@@ -15872,13 +15875,13 @@
         <v>144</v>
       </c>
       <c r="H339">
-        <v>2339</v>
+        <v>5324</v>
       </c>
       <c r="I339">
         <v>5184</v>
       </c>
       <c r="J339" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="340" spans="1:10">
@@ -15904,13 +15907,13 @@
         <v>1</v>
       </c>
       <c r="H340">
-        <v>2339</v>
+        <v>175</v>
       </c>
       <c r="I340">
         <v>180</v>
       </c>
       <c r="J340" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="341" spans="1:10">
@@ -15936,13 +15939,13 @@
         <v>1</v>
       </c>
       <c r="H341">
-        <v>2339</v>
+        <v>4723</v>
       </c>
       <c r="I341">
         <v>4729</v>
       </c>
       <c r="J341" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="342" spans="1:10">
@@ -15968,13 +15971,13 @@
         <v>33</v>
       </c>
       <c r="H342">
-        <v>2339</v>
+        <v>250</v>
       </c>
       <c r="I342">
         <v>221</v>
       </c>
       <c r="J342" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="343" spans="1:10">
@@ -16000,13 +16003,13 @@
         <v>37</v>
       </c>
       <c r="H343">
-        <v>2339</v>
+        <v>250</v>
       </c>
       <c r="I343">
         <v>217</v>
       </c>
       <c r="J343" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="344" spans="1:10">
@@ -16032,13 +16035,13 @@
         <v>4</v>
       </c>
       <c r="H344">
-        <v>2339</v>
+        <v>5878</v>
       </c>
       <c r="I344">
         <v>5878</v>
       </c>
       <c r="J344" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="345" spans="1:10">
@@ -16064,13 +16067,13 @@
         <v>114</v>
       </c>
       <c r="H345">
-        <v>2339</v>
+        <v>3139</v>
       </c>
       <c r="I345">
         <v>3029</v>
       </c>
       <c r="J345" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="346" spans="1:10">
@@ -16096,13 +16099,13 @@
         <v>12</v>
       </c>
       <c r="H346">
-        <v>2339</v>
+        <v>215</v>
       </c>
       <c r="I346">
         <v>207</v>
       </c>
       <c r="J346" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="347" spans="1:10">
@@ -16127,14 +16130,14 @@
       <c r="G347" t="s">
         <v>1126</v>
       </c>
-      <c r="H347">
-        <v>2339</v>
+      <c r="H347" t="s">
+        <v>1127</v>
       </c>
       <c r="I347">
         <v>1612</v>
       </c>
       <c r="J347" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="348" spans="1:10">
@@ -16160,13 +16163,13 @@
         <v>109</v>
       </c>
       <c r="H348">
-        <v>2339</v>
+        <v>2432</v>
       </c>
       <c r="I348">
         <v>2327</v>
       </c>
       <c r="J348" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="349" spans="1:10">
@@ -16192,13 +16195,13 @@
         <v>173</v>
       </c>
       <c r="H349">
-        <v>2339</v>
+        <v>5170</v>
       </c>
       <c r="I349">
         <v>5001</v>
       </c>
       <c r="J349" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="350" spans="1:10">
@@ -16224,13 +16227,13 @@
         <v>12</v>
       </c>
       <c r="H350">
-        <v>2339</v>
+        <v>26</v>
       </c>
       <c r="I350">
         <v>18</v>
       </c>
       <c r="J350" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="351" spans="1:10">
@@ -16256,13 +16259,13 @@
         <v>173</v>
       </c>
       <c r="H351">
-        <v>2339</v>
+        <v>270</v>
       </c>
       <c r="I351">
         <v>101</v>
       </c>
       <c r="J351" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="352" spans="1:10">
@@ -16288,13 +16291,13 @@
         <v>49</v>
       </c>
       <c r="H352">
-        <v>2339</v>
+        <v>220</v>
       </c>
       <c r="I352">
         <v>175</v>
       </c>
       <c r="J352" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="353" spans="1:10">
@@ -16320,13 +16323,13 @@
         <v>72</v>
       </c>
       <c r="H353">
-        <v>2339</v>
+        <v>364</v>
       </c>
       <c r="I353">
         <v>296</v>
       </c>
       <c r="J353" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="354" spans="1:10">
@@ -16352,13 +16355,13 @@
         <v>231</v>
       </c>
       <c r="H354">
-        <v>2339</v>
+        <v>2676</v>
       </c>
       <c r="I354">
         <v>2449</v>
       </c>
       <c r="J354" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="355" spans="1:10">
@@ -16384,13 +16387,13 @@
         <v>245</v>
       </c>
       <c r="H355">
-        <v>2339</v>
+        <v>2000</v>
       </c>
       <c r="I355">
         <v>1759</v>
       </c>
       <c r="J355" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="356" spans="1:10">
@@ -16416,13 +16419,13 @@
         <v>6</v>
       </c>
       <c r="H356">
-        <v>2339</v>
+        <v>1700</v>
       </c>
       <c r="I356">
         <v>1698</v>
       </c>
       <c r="J356" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="357" spans="1:10">
@@ -16448,13 +16451,13 @@
         <v>19</v>
       </c>
       <c r="H357">
-        <v>2339</v>
+        <v>141</v>
       </c>
       <c r="I357">
         <v>126</v>
       </c>
       <c r="J357" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="358" spans="1:10">
@@ -16480,13 +16483,13 @@
         <v>3764</v>
       </c>
       <c r="H358">
-        <v>2339</v>
+        <v>8809</v>
       </c>
       <c r="I358">
         <v>5049</v>
       </c>
       <c r="J358" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="359" spans="1:10">
@@ -16512,13 +16515,13 @@
         <v>67</v>
       </c>
       <c r="H359">
-        <v>2339</v>
+        <v>2585</v>
       </c>
       <c r="I359">
         <v>2522</v>
       </c>
       <c r="J359" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="360" spans="1:10">
@@ -16544,13 +16547,13 @@
         <v>88</v>
       </c>
       <c r="H360">
-        <v>2339</v>
+        <v>1537</v>
       </c>
       <c r="I360">
         <v>1453</v>
       </c>
       <c r="J360" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="361" spans="1:10">
@@ -16576,13 +16579,13 @@
         <v>117</v>
       </c>
       <c r="H361">
-        <v>2339</v>
+        <v>2870</v>
       </c>
       <c r="I361">
         <v>2757</v>
       </c>
       <c r="J361" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="362" spans="1:10">
@@ -16607,14 +16610,14 @@
       <c r="G362" t="s">
         <v>1126</v>
       </c>
-      <c r="H362">
-        <v>2339</v>
+      <c r="H362" t="s">
+        <v>1127</v>
       </c>
       <c r="I362">
         <v>4477</v>
       </c>
       <c r="J362" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="363" spans="1:10">
@@ -16640,13 +16643,13 @@
         <v>242</v>
       </c>
       <c r="H363">
-        <v>2339</v>
+        <v>2940</v>
       </c>
       <c r="I363">
         <v>2702</v>
       </c>
       <c r="J363" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="364" spans="1:10">
@@ -16672,13 +16675,13 @@
         <v>13</v>
       </c>
       <c r="H364">
-        <v>2339</v>
+        <v>103</v>
       </c>
       <c r="I364">
         <v>94</v>
       </c>
       <c r="J364" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="365" spans="1:10">
@@ -16704,13 +16707,13 @@
         <v>131</v>
       </c>
       <c r="H365">
-        <v>2339</v>
+        <v>2092</v>
       </c>
       <c r="I365">
         <v>1965</v>
       </c>
       <c r="J365" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="366" spans="1:10">
@@ -16736,13 +16739,13 @@
         <v>129</v>
       </c>
       <c r="H366">
-        <v>2339</v>
+        <v>2881</v>
       </c>
       <c r="I366">
         <v>2756</v>
       </c>
       <c r="J366" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="367" spans="1:10">
@@ -16768,13 +16771,13 @@
         <v>166</v>
       </c>
       <c r="H367">
-        <v>2339</v>
+        <v>2335</v>
       </c>
       <c r="I367">
         <v>2173</v>
       </c>
       <c r="J367" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="368" spans="1:10">
@@ -16799,14 +16802,14 @@
       <c r="G368" t="s">
         <v>1126</v>
       </c>
-      <c r="H368">
-        <v>2339</v>
+      <c r="H368" t="s">
+        <v>1127</v>
       </c>
       <c r="I368">
         <v>1300</v>
       </c>
       <c r="J368" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="369" spans="1:10">
@@ -16832,13 +16835,13 @@
         <v>11</v>
       </c>
       <c r="H369">
-        <v>2339</v>
+        <v>41</v>
       </c>
       <c r="I369">
         <v>34</v>
       </c>
       <c r="J369" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="370" spans="1:10">
@@ -16864,13 +16867,13 @@
         <v>224</v>
       </c>
       <c r="H370">
-        <v>2339</v>
+        <v>3105</v>
       </c>
       <c r="I370">
         <v>2885</v>
       </c>
       <c r="J370" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="371" spans="1:10">
@@ -16896,13 +16899,13 @@
         <v>408</v>
       </c>
       <c r="H371">
-        <v>2339</v>
+        <v>2379</v>
       </c>
       <c r="I371">
         <v>1975</v>
       </c>
       <c r="J371" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="372" spans="1:10">
@@ -16928,13 +16931,13 @@
         <v>240</v>
       </c>
       <c r="H372">
-        <v>2339</v>
+        <v>2869</v>
       </c>
       <c r="I372">
         <v>2633</v>
       </c>
       <c r="J372" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="373" spans="1:10">
@@ -16960,13 +16963,13 @@
         <v>88</v>
       </c>
       <c r="H373">
-        <v>2339</v>
+        <v>2863</v>
       </c>
       <c r="I373">
         <v>2779</v>
       </c>
       <c r="J373" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="374" spans="1:10">
@@ -16992,13 +16995,13 @@
         <v>651</v>
       </c>
       <c r="H374">
-        <v>2339</v>
+        <v>2814</v>
       </c>
       <c r="I374">
         <v>2167</v>
       </c>
       <c r="J374" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="375" spans="1:10">
@@ -17024,13 +17027,13 @@
         <v>220</v>
       </c>
       <c r="H375">
-        <v>2339</v>
+        <v>2469</v>
       </c>
       <c r="I375">
         <v>2253</v>
       </c>
       <c r="J375" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="376" spans="1:10">
@@ -17056,13 +17059,13 @@
         <v>170</v>
       </c>
       <c r="H376">
-        <v>2339</v>
+        <v>2241</v>
       </c>
       <c r="I376">
         <v>2075</v>
       </c>
       <c r="J376" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="377" spans="1:10">
@@ -17088,13 +17091,13 @@
         <v>72</v>
       </c>
       <c r="H377">
-        <v>2339</v>
+        <v>694</v>
       </c>
       <c r="I377">
         <v>626</v>
       </c>
       <c r="J377" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="378" spans="1:10">
@@ -17120,13 +17123,13 @@
         <v>140</v>
       </c>
       <c r="H378">
-        <v>2339</v>
+        <v>2754</v>
       </c>
       <c r="I378">
         <v>2618</v>
       </c>
       <c r="J378" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="379" spans="1:10">
@@ -17152,13 +17155,13 @@
         <v>79</v>
       </c>
       <c r="H379">
-        <v>2339</v>
+        <v>2177</v>
       </c>
       <c r="I379">
         <v>2102</v>
       </c>
       <c r="J379" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="380" spans="1:10">
@@ -17184,13 +17187,13 @@
         <v>79</v>
       </c>
       <c r="H380">
-        <v>2339</v>
+        <v>2177</v>
       </c>
       <c r="I380">
         <v>2102</v>
       </c>
       <c r="J380" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="381" spans="1:10">
@@ -17216,13 +17219,13 @@
         <v>339</v>
       </c>
       <c r="H381">
-        <v>2339</v>
+        <v>3360</v>
       </c>
       <c r="I381">
         <v>3025</v>
       </c>
       <c r="J381" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="382" spans="1:10">
@@ -17248,13 +17251,13 @@
         <v>6</v>
       </c>
       <c r="H382">
-        <v>2339</v>
+        <v>76</v>
       </c>
       <c r="I382">
         <v>74</v>
       </c>
       <c r="J382" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="383" spans="1:10">
@@ -17279,14 +17282,14 @@
       <c r="G383" t="s">
         <v>1126</v>
       </c>
-      <c r="H383">
-        <v>2339</v>
+      <c r="H383" t="s">
+        <v>1127</v>
       </c>
       <c r="I383">
         <v>1672</v>
       </c>
       <c r="J383" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="384" spans="1:10">
@@ -17311,14 +17314,14 @@
       <c r="G384" t="s">
         <v>1126</v>
       </c>
-      <c r="H384">
-        <v>2339</v>
+      <c r="H384" t="s">
+        <v>1127</v>
       </c>
       <c r="I384">
         <v>310</v>
       </c>
       <c r="J384" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="385" spans="1:10">
@@ -17344,13 +17347,13 @@
         <v>60</v>
       </c>
       <c r="H385">
-        <v>2339</v>
+        <v>2344</v>
       </c>
       <c r="I385">
         <v>2288</v>
       </c>
       <c r="J385" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="386" spans="1:10">
@@ -17376,13 +17379,13 @@
         <v>62</v>
       </c>
       <c r="H386">
-        <v>2339</v>
+        <v>70</v>
       </c>
       <c r="I386">
         <v>12</v>
       </c>
       <c r="J386" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="387" spans="1:10">
@@ -17408,13 +17411,13 @@
         <v>214</v>
       </c>
       <c r="H387">
-        <v>2339</v>
+        <v>2749</v>
       </c>
       <c r="I387">
         <v>2539</v>
       </c>
       <c r="J387" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="388" spans="1:10">
@@ -17440,13 +17443,13 @@
         <v>226</v>
       </c>
       <c r="H388">
-        <v>2339</v>
+        <v>2966</v>
       </c>
       <c r="I388">
         <v>2744</v>
       </c>
       <c r="J388" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="389" spans="1:10">
@@ -17472,13 +17475,13 @@
         <v>47</v>
       </c>
       <c r="H389">
-        <v>2339</v>
+        <v>2586</v>
       </c>
       <c r="I389">
         <v>2543</v>
       </c>
       <c r="J389" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="390" spans="1:10">
@@ -17504,13 +17507,13 @@
         <v>143</v>
       </c>
       <c r="H390">
-        <v>2339</v>
+        <v>2278</v>
       </c>
       <c r="I390">
         <v>2139</v>
       </c>
       <c r="J390" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="391" spans="1:10">
@@ -17536,13 +17539,13 @@
         <v>54</v>
       </c>
       <c r="H391">
-        <v>2339</v>
+        <v>1657</v>
       </c>
       <c r="I391">
         <v>1607</v>
       </c>
       <c r="J391" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="392" spans="1:10">
@@ -17568,13 +17571,13 @@
         <v>288</v>
       </c>
       <c r="H392">
-        <v>2339</v>
+        <v>1797</v>
       </c>
       <c r="I392">
         <v>1513</v>
       </c>
       <c r="J392" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="393" spans="1:10">
@@ -17600,13 +17603,13 @@
         <v>128</v>
       </c>
       <c r="H393">
-        <v>2339</v>
+        <v>2615</v>
       </c>
       <c r="I393">
         <v>2491</v>
       </c>
       <c r="J393" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="394" spans="1:10">
@@ -17632,13 +17635,13 @@
         <v>78</v>
       </c>
       <c r="H394">
-        <v>2339</v>
+        <v>3109</v>
       </c>
       <c r="I394">
         <v>3035</v>
       </c>
       <c r="J394" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="395" spans="1:10">
@@ -17664,13 +17667,13 @@
         <v>55</v>
       </c>
       <c r="H395">
-        <v>2339</v>
+        <v>734</v>
       </c>
       <c r="I395">
         <v>683</v>
       </c>
       <c r="J395" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="396" spans="1:10">
@@ -17696,13 +17699,13 @@
         <v>601</v>
       </c>
       <c r="H396">
-        <v>2339</v>
+        <v>3017</v>
       </c>
       <c r="I396">
         <v>2420</v>
       </c>
       <c r="J396" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="397" spans="1:10">
@@ -17728,13 +17731,13 @@
         <v>448</v>
       </c>
       <c r="H397">
-        <v>2339</v>
+        <v>2469</v>
       </c>
       <c r="I397">
         <v>2025</v>
       </c>
       <c r="J397" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="398" spans="1:10">
@@ -17759,14 +17762,14 @@
       <c r="G398" t="s">
         <v>1126</v>
       </c>
-      <c r="H398">
-        <v>2339</v>
+      <c r="H398" t="s">
+        <v>1127</v>
       </c>
       <c r="I398">
         <v>1624</v>
       </c>
       <c r="J398" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="399" spans="1:10">
@@ -17792,13 +17795,13 @@
         <v>72</v>
       </c>
       <c r="H399">
-        <v>2339</v>
+        <v>2344</v>
       </c>
       <c r="I399">
         <v>2276</v>
       </c>
       <c r="J399" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="400" spans="1:10">
@@ -17824,13 +17827,13 @@
         <v>104</v>
       </c>
       <c r="H400">
-        <v>2339</v>
+        <v>1460</v>
       </c>
       <c r="I400">
         <v>1360</v>
       </c>
       <c r="J400" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="401" spans="1:10">
@@ -17856,13 +17859,13 @@
         <v>6</v>
       </c>
       <c r="H401">
-        <v>2339</v>
+        <v>1867</v>
       </c>
       <c r="I401">
         <v>1865</v>
       </c>
       <c r="J401" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="402" spans="1:10">
@@ -17888,13 +17891,13 @@
         <v>203</v>
       </c>
       <c r="H402">
-        <v>2339</v>
+        <v>3054</v>
       </c>
       <c r="I402">
         <v>2855</v>
       </c>
       <c r="J402" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="403" spans="1:10">
@@ -17920,13 +17923,13 @@
         <v>61</v>
       </c>
       <c r="H403">
-        <v>2339</v>
+        <v>2608</v>
       </c>
       <c r="I403">
         <v>2551</v>
       </c>
       <c r="J403" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="404" spans="1:10">
@@ -17951,14 +17954,14 @@
       <c r="G404" t="s">
         <v>1126</v>
       </c>
-      <c r="H404">
-        <v>2339</v>
+      <c r="H404" t="s">
+        <v>1127</v>
       </c>
       <c r="I404">
         <v>976</v>
       </c>
       <c r="J404" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="405" spans="1:10">
@@ -17984,13 +17987,13 @@
         <v>218</v>
       </c>
       <c r="H405">
-        <v>2339</v>
+        <v>1285</v>
       </c>
       <c r="I405">
         <v>1071</v>
       </c>
       <c r="J405" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="406" spans="1:10">
@@ -18016,13 +18019,13 @@
         <v>208</v>
       </c>
       <c r="H406">
-        <v>2339</v>
+        <v>1407</v>
       </c>
       <c r="I406">
         <v>1203</v>
       </c>
       <c r="J406" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="407" spans="1:10">
@@ -18048,13 +18051,13 @@
         <v>233</v>
       </c>
       <c r="H407">
-        <v>2339</v>
+        <v>2139</v>
       </c>
       <c r="I407">
         <v>1910</v>
       </c>
       <c r="J407" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="408" spans="1:10">
@@ -18080,13 +18083,13 @@
         <v>37</v>
       </c>
       <c r="H408">
-        <v>2339</v>
+        <v>2398</v>
       </c>
       <c r="I408">
         <v>2365</v>
       </c>
       <c r="J408" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="409" spans="1:10">
@@ -18112,13 +18115,13 @@
         <v>78</v>
       </c>
       <c r="H409">
-        <v>2339</v>
+        <v>2026</v>
       </c>
       <c r="I409">
         <v>1952</v>
       </c>
       <c r="J409" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="410" spans="1:10">
@@ -18144,13 +18147,13 @@
         <v>137</v>
       </c>
       <c r="H410">
-        <v>2339</v>
+        <v>1986</v>
       </c>
       <c r="I410">
         <v>1853</v>
       </c>
       <c r="J410" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="411" spans="1:10">
@@ -18176,13 +18179,13 @@
         <v>37</v>
       </c>
       <c r="H411">
-        <v>2339</v>
+        <v>2123</v>
       </c>
       <c r="I411">
         <v>2090</v>
       </c>
       <c r="J411" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="412" spans="1:10">
@@ -18207,14 +18210,14 @@
       <c r="G412" t="s">
         <v>1126</v>
       </c>
-      <c r="H412">
-        <v>2339</v>
+      <c r="H412" t="s">
+        <v>1127</v>
       </c>
       <c r="I412">
         <v>1575</v>
       </c>
       <c r="J412" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="413" spans="1:10">
@@ -18239,14 +18242,14 @@
       <c r="G413" t="s">
         <v>1126</v>
       </c>
-      <c r="H413">
-        <v>2339</v>
+      <c r="H413" t="s">
+        <v>1127</v>
       </c>
       <c r="I413">
         <v>1575</v>
       </c>
       <c r="J413" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="414" spans="1:10">
@@ -18272,13 +18275,13 @@
         <v>37</v>
       </c>
       <c r="H414">
-        <v>2339</v>
+        <v>2123</v>
       </c>
       <c r="I414">
         <v>2090</v>
       </c>
       <c r="J414" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="415" spans="1:10">
@@ -18304,13 +18307,13 @@
         <v>139</v>
       </c>
       <c r="H415">
-        <v>2339</v>
+        <v>599</v>
       </c>
       <c r="I415">
         <v>464</v>
       </c>
       <c r="J415" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="416" spans="1:10">
@@ -18336,13 +18339,13 @@
         <v>4</v>
       </c>
       <c r="H416">
-        <v>2339</v>
+        <v>826</v>
       </c>
       <c r="I416">
         <v>826</v>
       </c>
       <c r="J416" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="417" spans="1:10">
@@ -18368,13 +18371,13 @@
         <v>98</v>
       </c>
       <c r="H417">
-        <v>2339</v>
+        <v>409</v>
       </c>
       <c r="I417">
         <v>315</v>
       </c>
       <c r="J417" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="418" spans="1:10">
@@ -18399,14 +18402,14 @@
       <c r="G418" t="s">
         <v>1126</v>
       </c>
-      <c r="H418">
-        <v>2339</v>
+      <c r="H418" t="s">
+        <v>1127</v>
       </c>
       <c r="I418">
         <v>1596</v>
       </c>
       <c r="J418" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="419" spans="1:10">
@@ -18432,13 +18435,13 @@
         <v>91</v>
       </c>
       <c r="H419">
-        <v>2339</v>
+        <v>2943</v>
       </c>
       <c r="I419">
         <v>2856</v>
       </c>
       <c r="J419" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="420" spans="1:10">
@@ -18464,13 +18467,13 @@
         <v>559</v>
       </c>
       <c r="H420">
-        <v>2339</v>
+        <v>590</v>
       </c>
       <c r="I420">
         <v>35</v>
       </c>
       <c r="J420" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="421" spans="1:10">
@@ -18496,13 +18499,13 @@
         <v>172</v>
       </c>
       <c r="H421">
-        <v>2339</v>
+        <v>3148</v>
       </c>
       <c r="I421">
         <v>2980</v>
       </c>
       <c r="J421" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="422" spans="1:10">
@@ -18528,13 +18531,13 @@
         <v>111</v>
       </c>
       <c r="H422">
-        <v>2339</v>
+        <v>3020</v>
       </c>
       <c r="I422">
         <v>2913</v>
       </c>
       <c r="J422" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="423" spans="1:10">
@@ -18560,13 +18563,13 @@
         <v>279</v>
       </c>
       <c r="H423">
-        <v>2339</v>
+        <v>2719</v>
       </c>
       <c r="I423">
         <v>2444</v>
       </c>
       <c r="J423" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="424" spans="1:10">
@@ -18592,13 +18595,13 @@
         <v>67</v>
       </c>
       <c r="H424">
-        <v>2339</v>
+        <v>2698</v>
       </c>
       <c r="I424">
         <v>2635</v>
       </c>
       <c r="J424" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="425" spans="1:10">
@@ -18623,14 +18626,14 @@
       <c r="G425" t="s">
         <v>1126</v>
       </c>
-      <c r="H425">
-        <v>2339</v>
+      <c r="H425" t="s">
+        <v>1127</v>
       </c>
       <c r="I425">
         <v>936</v>
       </c>
       <c r="J425" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="426" spans="1:10">
@@ -18656,13 +18659,13 @@
         <v>116</v>
       </c>
       <c r="H426">
-        <v>2339</v>
+        <v>2761</v>
       </c>
       <c r="I426">
         <v>2649</v>
       </c>
       <c r="J426" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="427" spans="1:10">
@@ -18688,13 +18691,13 @@
         <v>34</v>
       </c>
       <c r="H427">
-        <v>2339</v>
+        <v>2085</v>
       </c>
       <c r="I427">
         <v>2055</v>
       </c>
       <c r="J427" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="428" spans="1:10">
@@ -18720,13 +18723,13 @@
         <v>116</v>
       </c>
       <c r="H428">
-        <v>2339</v>
+        <v>2761</v>
       </c>
       <c r="I428">
         <v>2649</v>
       </c>
       <c r="J428" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="429" spans="1:10">
@@ -18751,14 +18754,14 @@
       <c r="G429" t="s">
         <v>1126</v>
       </c>
-      <c r="H429">
-        <v>2339</v>
+      <c r="H429" t="s">
+        <v>1127</v>
       </c>
       <c r="I429">
         <v>1272</v>
       </c>
       <c r="J429" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="430" spans="1:10">
@@ -18784,13 +18787,13 @@
         <v>115</v>
       </c>
       <c r="H430">
-        <v>2339</v>
+        <v>2205</v>
       </c>
       <c r="I430">
         <v>2094</v>
       </c>
       <c r="J430" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="431" spans="1:10">
@@ -18816,13 +18819,13 @@
         <v>135</v>
       </c>
       <c r="H431">
-        <v>2339</v>
+        <v>2262</v>
       </c>
       <c r="I431">
         <v>2131</v>
       </c>
       <c r="J431" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="432" spans="1:10">
@@ -18848,13 +18851,13 @@
         <v>1546</v>
       </c>
       <c r="H432">
-        <v>2339</v>
+        <v>3799</v>
       </c>
       <c r="I432">
         <v>2257</v>
       </c>
       <c r="J432" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="433" spans="1:10">
@@ -18880,13 +18883,13 @@
         <v>47</v>
       </c>
       <c r="H433">
-        <v>2339</v>
+        <v>2190</v>
       </c>
       <c r="I433">
         <v>2147</v>
       </c>
       <c r="J433" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="434" spans="1:10">
@@ -18912,13 +18915,13 @@
         <v>321</v>
       </c>
       <c r="H434">
-        <v>2339</v>
+        <v>1649</v>
       </c>
       <c r="I434">
         <v>1332</v>
       </c>
       <c r="J434" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="435" spans="1:10">
@@ -18944,13 +18947,13 @@
         <v>6</v>
       </c>
       <c r="H435">
-        <v>2339</v>
+        <v>1311</v>
       </c>
       <c r="I435">
         <v>1309</v>
       </c>
       <c r="J435" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="436" spans="1:10">
@@ -18975,14 +18978,14 @@
       <c r="G436" t="s">
         <v>1126</v>
       </c>
-      <c r="H436">
-        <v>2339</v>
+      <c r="H436" t="s">
+        <v>1127</v>
       </c>
       <c r="I436">
         <v>1187</v>
       </c>
       <c r="J436" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="437" spans="1:10">
@@ -19008,13 +19011,13 @@
         <v>433</v>
       </c>
       <c r="H437">
-        <v>2339</v>
+        <v>2504</v>
       </c>
       <c r="I437">
         <v>2075</v>
       </c>
       <c r="J437" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="438" spans="1:10">
@@ -19039,14 +19042,14 @@
       <c r="G438" t="s">
         <v>1126</v>
       </c>
-      <c r="H438">
-        <v>2339</v>
+      <c r="H438" t="s">
+        <v>1127</v>
       </c>
       <c r="I438">
         <v>2387</v>
       </c>
       <c r="J438" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="439" spans="1:10">
@@ -19071,14 +19074,14 @@
       <c r="G439" t="s">
         <v>1126</v>
       </c>
-      <c r="H439">
-        <v>2339</v>
+      <c r="H439" t="s">
+        <v>1127</v>
       </c>
       <c r="I439">
         <v>1787</v>
       </c>
       <c r="J439" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="440" spans="1:10">
@@ -19103,14 +19106,14 @@
       <c r="G440" t="s">
         <v>1126</v>
       </c>
-      <c r="H440">
-        <v>2339</v>
+      <c r="H440" t="s">
+        <v>1127</v>
       </c>
       <c r="I440">
         <v>1801</v>
       </c>
       <c r="J440" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="441" spans="1:10">
@@ -19136,13 +19139,13 @@
         <v>62</v>
       </c>
       <c r="H441">
-        <v>2339</v>
+        <v>1964</v>
       </c>
       <c r="I441">
         <v>1906</v>
       </c>
       <c r="J441" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="442" spans="1:10">
@@ -19167,14 +19170,14 @@
       <c r="G442" t="s">
         <v>1126</v>
       </c>
-      <c r="H442">
-        <v>2339</v>
+      <c r="H442" t="s">
+        <v>1127</v>
       </c>
       <c r="I442">
         <v>490</v>
       </c>
       <c r="J442" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="443" spans="1:10">
@@ -19200,13 +19203,13 @@
         <v>375</v>
       </c>
       <c r="H443">
-        <v>2339</v>
+        <v>1850</v>
       </c>
       <c r="I443">
         <v>1479</v>
       </c>
       <c r="J443" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="444" spans="1:10">
@@ -19232,13 +19235,13 @@
         <v>212</v>
       </c>
       <c r="H444">
-        <v>2339</v>
+        <v>2451</v>
       </c>
       <c r="I444">
         <v>2243</v>
       </c>
       <c r="J444" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="445" spans="1:10">
@@ -19263,14 +19266,14 @@
       <c r="G445" t="s">
         <v>1126</v>
       </c>
-      <c r="H445">
-        <v>2339</v>
+      <c r="H445" t="s">
+        <v>1127</v>
       </c>
       <c r="I445">
         <v>269</v>
       </c>
       <c r="J445" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="446" spans="1:10">
@@ -19295,14 +19298,14 @@
       <c r="G446" t="s">
         <v>1126</v>
       </c>
-      <c r="H446">
-        <v>2339</v>
+      <c r="H446" t="s">
+        <v>1127</v>
       </c>
       <c r="I446">
         <v>1294</v>
       </c>
       <c r="J446" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="447" spans="1:10">
@@ -19328,13 +19331,13 @@
         <v>109</v>
       </c>
       <c r="H447">
-        <v>2339</v>
+        <v>2335</v>
       </c>
       <c r="I447">
         <v>2230</v>
       </c>
       <c r="J447" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="448" spans="1:10">
@@ -19360,13 +19363,13 @@
         <v>163</v>
       </c>
       <c r="H448">
-        <v>2339</v>
+        <v>2553</v>
       </c>
       <c r="I448">
         <v>2394</v>
       </c>
       <c r="J448" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="449" spans="1:10">
@@ -19392,13 +19395,13 @@
         <v>10</v>
       </c>
       <c r="H449">
-        <v>2339</v>
+        <v>35</v>
       </c>
       <c r="I449">
         <v>29</v>
       </c>
       <c r="J449" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="450" spans="1:10">
@@ -19424,13 +19427,13 @@
         <v>830</v>
       </c>
       <c r="H450">
-        <v>2339</v>
+        <v>3655</v>
       </c>
       <c r="I450">
         <v>2829</v>
       </c>
       <c r="J450" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="451" spans="1:10">
@@ -19456,13 +19459,13 @@
         <v>80</v>
       </c>
       <c r="H451">
-        <v>2339</v>
+        <v>2711</v>
       </c>
       <c r="I451">
         <v>2635</v>
       </c>
       <c r="J451" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="452" spans="1:10">
@@ -19488,13 +19491,13 @@
         <v>94</v>
       </c>
       <c r="H452">
-        <v>2339</v>
+        <v>2777</v>
       </c>
       <c r="I452">
         <v>2687</v>
       </c>
       <c r="J452" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="453" spans="1:10">
@@ -19519,14 +19522,14 @@
       <c r="G453" t="s">
         <v>1126</v>
       </c>
-      <c r="H453">
-        <v>2339</v>
+      <c r="H453" t="s">
+        <v>1127</v>
       </c>
       <c r="I453">
         <v>1625</v>
       </c>
       <c r="J453" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="454" spans="1:10">
@@ -19551,14 +19554,14 @@
       <c r="G454" t="s">
         <v>1126</v>
       </c>
-      <c r="H454">
-        <v>2339</v>
+      <c r="H454" t="s">
+        <v>1127</v>
       </c>
       <c r="I454">
         <v>1625</v>
       </c>
       <c r="J454" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="455" spans="1:10">
@@ -19584,13 +19587,13 @@
         <v>1268</v>
       </c>
       <c r="H455">
-        <v>2339</v>
+        <v>3894</v>
       </c>
       <c r="I455">
         <v>2630</v>
       </c>
       <c r="J455" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="456" spans="1:10">
@@ -19616,13 +19619,13 @@
         <v>109</v>
       </c>
       <c r="H456">
-        <v>2339</v>
+        <v>1533</v>
       </c>
       <c r="I456">
         <v>1428</v>
       </c>
       <c r="J456" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="457" spans="1:10">
@@ -19648,13 +19651,13 @@
         <v>58</v>
       </c>
       <c r="H457">
-        <v>2339</v>
+        <v>1944</v>
       </c>
       <c r="I457">
         <v>1890</v>
       </c>
       <c r="J457" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="458" spans="1:10">
@@ -19679,14 +19682,14 @@
       <c r="G458" t="s">
         <v>1126</v>
       </c>
-      <c r="H458">
-        <v>2339</v>
+      <c r="H458" t="s">
+        <v>1127</v>
       </c>
       <c r="I458">
         <v>1246</v>
       </c>
       <c r="J458" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="459" spans="1:10">
@@ -19712,13 +19715,13 @@
         <v>245</v>
       </c>
       <c r="H459">
-        <v>2339</v>
+        <v>2956</v>
       </c>
       <c r="I459">
         <v>2715</v>
       </c>
       <c r="J459" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="460" spans="1:10">
@@ -19744,13 +19747,13 @@
         <v>218</v>
       </c>
       <c r="H460">
-        <v>2339</v>
+        <v>3239</v>
       </c>
       <c r="I460">
         <v>3025</v>
       </c>
       <c r="J460" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="461" spans="1:10">
@@ -19782,7 +19785,7 @@
         <v>2184</v>
       </c>
       <c r="J461" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
   </sheetData>
